--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L696"/>
+  <dimension ref="A1:L705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29415,324 +29415,324 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>540424</v>
+        <v>540425</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-09-12T18:30:00Z</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D631" t="n">
-        <v>722</v>
+        <v>3</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="F631" t="n">
-        <v>1722</v>
+        <v>19</v>
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K631" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L631" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>540425</v>
+        <v>540426</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D632" t="n">
-        <v>723</v>
+        <v>17</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="F632" t="n">
-        <v>1723</v>
+        <v>10</v>
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K632" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L632" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>540426</v>
+        <v>540427</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D633" t="n">
-        <v>724</v>
+        <v>15</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="F633" t="n">
-        <v>1724</v>
+        <v>721</v>
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K633" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L633" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>540427</v>
+        <v>540429</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D634" t="n">
-        <v>725</v>
+        <v>11</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="F634" t="n">
-        <v>1725</v>
+        <v>1</v>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I634" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K634" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L634" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>540428</v>
+        <v>540430</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D635" t="n">
-        <v>726</v>
+        <v>28</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="F635" t="n">
-        <v>1726</v>
+        <v>2</v>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="H635" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I635" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>540429</v>
+        <v>540432</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D636" t="n">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="F636" t="n">
-        <v>1727</v>
+        <v>4</v>
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H636" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K636" t="n">
         <v>0</v>
       </c>
       <c r="L636" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>540430</v>
+        <v>540424</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2025-09-13T16:30:00Z</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D637" t="n">
-        <v>728</v>
+        <v>5</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="F637" t="n">
-        <v>1728</v>
+        <v>7</v>
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K637" t="n">
         <v>0</v>
       </c>
       <c r="L637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -29741,87 +29741,87 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2025-09-14T13:30:00Z</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D638" t="n">
-        <v>729</v>
+        <v>20</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="F638" t="n">
-        <v>1729</v>
+        <v>16</v>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K638" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L638" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>540432</v>
+        <v>540428</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2025-09-14T15:30:00Z</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D639" t="n">
-        <v>730</v>
+        <v>18</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="F639" t="n">
-        <v>1730</v>
+        <v>12</v>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="H639" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L639" t="n">
         <v>0</v>
@@ -29833,37 +29833,37 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C640" t="n">
         <v>0</v>
       </c>
       <c r="D640" t="n">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F640" t="n">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>2</v>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K640" t="n">
@@ -29879,26 +29879,26 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C641" t="n">
         <v>0</v>
       </c>
       <c r="D641" t="n">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F641" t="n">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H641" t="n">
@@ -29913,7 +29913,7 @@
         </is>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L641" t="n">
         <v>0</v>
@@ -29925,14 +29925,14 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C642" t="n">
         <v>0</v>
       </c>
       <c r="D642" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -29940,18 +29940,18 @@
         </is>
       </c>
       <c r="F642" t="n">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J642" t="inlineStr">
         <is>
@@ -29971,37 +29971,37 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C643" t="n">
         <v>0</v>
       </c>
       <c r="D643" t="n">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F643" t="n">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H643" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K643" t="n">
@@ -30017,14 +30017,14 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C644" t="n">
         <v>0</v>
       </c>
       <c r="D644" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -30032,15 +30032,15 @@
         </is>
       </c>
       <c r="F644" t="n">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         </is>
       </c>
       <c r="K644" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L644" t="n">
         <v>0</v>
@@ -30063,37 +30063,37 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C645" t="n">
         <v>0</v>
       </c>
       <c r="D645" t="n">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F645" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I645" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K645" t="n">
@@ -30109,22 +30109,22 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C646" t="n">
         <v>0</v>
       </c>
       <c r="D646" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F646" t="n">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="G646" t="inlineStr">
         <is>
@@ -30132,14 +30132,14 @@
         </is>
       </c>
       <c r="H646" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K646" t="n">
@@ -30155,22 +30155,22 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C647" t="n">
         <v>0</v>
       </c>
       <c r="D647" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F647" t="n">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="G647" t="inlineStr">
         <is>
@@ -30178,14 +30178,14 @@
         </is>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K647" t="n">
@@ -30201,37 +30201,37 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C648" t="n">
         <v>0</v>
       </c>
       <c r="D648" t="n">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F648" t="n">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K648" t="n">
@@ -30247,37 +30247,37 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C649" t="n">
         <v>0</v>
       </c>
       <c r="D649" t="n">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F649" t="n">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H649" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I649" t="n">
         <v>2</v>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K649" t="n">
@@ -30293,37 +30293,37 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C650" t="n">
         <v>0</v>
       </c>
       <c r="D650" t="n">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F650" t="n">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K650" t="n">
@@ -30339,14 +30339,14 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C651" t="n">
         <v>0</v>
       </c>
       <c r="D651" t="n">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -30354,18 +30354,18 @@
         </is>
       </c>
       <c r="F651" t="n">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J651" t="inlineStr">
         <is>
@@ -30385,37 +30385,37 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C652" t="n">
         <v>0</v>
       </c>
       <c r="D652" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F652" t="n">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I652" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K652" t="n">
@@ -30431,14 +30431,14 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C653" t="n">
         <v>0</v>
       </c>
       <c r="D653" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -30446,15 +30446,15 @@
         </is>
       </c>
       <c r="F653" t="n">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -30477,33 +30477,33 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C654" t="n">
         <v>0</v>
       </c>
       <c r="D654" t="n">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F654" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H654" t="n">
         <v>0</v>
       </c>
       <c r="I654" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J654" t="inlineStr">
         <is>
@@ -30523,37 +30523,37 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C655" t="n">
         <v>0</v>
       </c>
       <c r="D655" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F655" t="n">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K655" t="n">
@@ -30569,37 +30569,37 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C656" t="n">
         <v>0</v>
       </c>
       <c r="D656" t="n">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F656" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K656" t="n">
@@ -30615,33 +30615,33 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C657" t="n">
         <v>0</v>
       </c>
       <c r="D657" t="n">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F657" t="n">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H657" t="n">
         <v>1</v>
       </c>
       <c r="I657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J657" t="inlineStr">
         <is>
@@ -30661,37 +30661,37 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C658" t="n">
         <v>0</v>
       </c>
       <c r="D658" t="n">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>1740</v>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F658" t="n">
-        <v>1749</v>
-      </c>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I658" t="n">
         <v>2</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K658" t="n">
@@ -30707,22 +30707,22 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C659" t="n">
         <v>0</v>
       </c>
       <c r="D659" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F659" t="n">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="G659" t="inlineStr">
         <is>
@@ -30753,26 +30753,26 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C660" t="n">
         <v>0</v>
       </c>
       <c r="D660" t="n">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F660" t="n">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H660" t="n">
@@ -30799,26 +30799,26 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C661" t="n">
         <v>0</v>
       </c>
       <c r="D661" t="n">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F661" t="n">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H661" t="n">
@@ -30845,22 +30845,22 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C662" t="n">
         <v>0</v>
       </c>
       <c r="D662" t="n">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F662" t="n">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="G662" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         </is>
       </c>
       <c r="H662" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -30891,22 +30891,22 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C663" t="n">
         <v>0</v>
       </c>
       <c r="D663" t="n">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F663" t="n">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="G663" t="inlineStr">
         <is>
@@ -30937,14 +30937,14 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C664" t="n">
         <v>0</v>
       </c>
       <c r="D664" t="n">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -30952,22 +30952,22 @@
         </is>
       </c>
       <c r="F664" t="n">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K664" t="n">
@@ -30983,14 +30983,14 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C665" t="n">
         <v>0</v>
       </c>
       <c r="D665" t="n">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -30998,22 +30998,22 @@
         </is>
       </c>
       <c r="F665" t="n">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K665" t="n">
@@ -31029,22 +31029,22 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C666" t="n">
         <v>0</v>
       </c>
       <c r="D666" t="n">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F666" t="n">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="G666" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         </is>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>3</v>
@@ -31075,37 +31075,37 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C667" t="n">
         <v>0</v>
       </c>
       <c r="D667" t="n">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F667" t="n">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667" t="n">
         <v>2</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K667" t="n">
@@ -31121,37 +31121,37 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C668" t="n">
         <v>0</v>
       </c>
       <c r="D668" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F668" t="n">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K668" t="n">
@@ -31167,22 +31167,22 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C669" t="n">
         <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F669" t="n">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="G669" t="inlineStr">
         <is>
@@ -31193,11 +31193,11 @@
         <v>1</v>
       </c>
       <c r="I669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K669" t="n">
@@ -31213,14 +31213,14 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C670" t="n">
         <v>0</v>
       </c>
       <c r="D670" t="n">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -31228,18 +31228,18 @@
         </is>
       </c>
       <c r="F670" t="n">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J670" t="inlineStr">
         <is>
@@ -31259,30 +31259,30 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C671" t="n">
         <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F671" t="n">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -31305,37 +31305,37 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C672" t="n">
         <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K672" t="n">
@@ -31351,14 +31351,14 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C673" t="n">
         <v>0</v>
       </c>
       <c r="D673" t="n">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -31366,15 +31366,15 @@
         </is>
       </c>
       <c r="F673" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -31397,14 +31397,14 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C674" t="n">
         <v>0</v>
       </c>
       <c r="D674" t="n">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -31412,22 +31412,22 @@
         </is>
       </c>
       <c r="F674" t="n">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H674" t="n">
         <v>1</v>
       </c>
       <c r="I674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K674" t="n">
@@ -31443,37 +31443,37 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C675" t="n">
         <v>0</v>
       </c>
       <c r="D675" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F675" t="n">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I675" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K675" t="n">
@@ -31489,37 +31489,37 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F676" t="n">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K676" t="n">
@@ -31535,37 +31535,37 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
         <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K677" t="n">
@@ -31581,37 +31581,37 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>0</v>
       </c>
       <c r="D678" t="n">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F678" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H678" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K678" t="n">
@@ -31627,37 +31627,37 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F679" t="n">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K679" t="n">
@@ -31673,33 +31673,33 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F680" t="n">
-        <v>1771</v>
-      </c>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J680" t="inlineStr">
         <is>
@@ -31719,33 +31719,33 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F681" t="n">
-        <v>1772</v>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
@@ -31765,37 +31765,37 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
         <v>0</v>
       </c>
       <c r="D682" t="n">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K682" t="n">
@@ -31811,37 +31811,37 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
         <v>0</v>
       </c>
       <c r="D683" t="n">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F683" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K683" t="n">
@@ -31857,37 +31857,37 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>1766</v>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F684" t="n">
-        <v>1775</v>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K684" t="n">
@@ -31903,37 +31903,37 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -31949,33 +31949,33 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
@@ -31995,37 +31995,37 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K687" t="n">
@@ -32041,37 +32041,37 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K688" t="n">
@@ -32087,37 +32087,37 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K689" t="n">
@@ -32133,37 +32133,37 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K690" t="n">
@@ -32179,33 +32179,33 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
@@ -32225,37 +32225,37 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K692" t="n">
@@ -32271,33 +32271,33 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
@@ -32317,37 +32317,37 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H694" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>1</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K694" t="n">
@@ -32363,37 +32363,37 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I695" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K695" t="n">
@@ -32409,43 +32409,457 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
+          <t>2025-04-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>0</v>
+      </c>
+      <c r="D696" t="n">
+        <v>778</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>1778</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H696" t="n">
+        <v>2</v>
+      </c>
+      <c r="I696" t="n">
+        <v>2</v>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>540490</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2025-04-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>0</v>
+      </c>
+      <c r="D697" t="n">
+        <v>779</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H697" t="n">
+        <v>3</v>
+      </c>
+      <c r="I697" t="n">
+        <v>1</v>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>540491</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>0</v>
+      </c>
+      <c r="D698" t="n">
+        <v>780</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="H698" t="n">
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>2</v>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>540492</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0</v>
+      </c>
+      <c r="D699" t="n">
+        <v>781</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H699" t="n">
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0</v>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>540493</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0</v>
+      </c>
+      <c r="D700" t="n">
+        <v>782</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="n">
+        <v>4</v>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>540494</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>0</v>
+      </c>
+      <c r="D701" t="n">
+        <v>783</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H701" t="n">
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>1</v>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>540495</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>0</v>
+      </c>
+      <c r="D702" t="n">
+        <v>784</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H702" t="n">
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2</v>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>540496</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0</v>
+      </c>
+      <c r="D703" t="n">
+        <v>785</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H703" t="n">
+        <v>6</v>
+      </c>
+      <c r="I703" t="n">
+        <v>1</v>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>540497</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C696" t="n">
-        <v>0</v>
-      </c>
-      <c r="D696" t="n">
+      <c r="C704" t="n">
+        <v>0</v>
+      </c>
+      <c r="D704" t="n">
+        <v>786</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H704" t="n">
+        <v>4</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0</v>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>540498</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0</v>
+      </c>
+      <c r="D705" t="n">
         <v>787</v>
       </c>
-      <c r="E696" t="inlineStr">
+      <c r="E705" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F696" t="n">
+      <c r="F705" t="n">
         <v>1787</v>
       </c>
-      <c r="G696" t="inlineStr">
+      <c r="G705" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H696" t="n">
-        <v>3</v>
-      </c>
-      <c r="I696" t="n">
-        <v>2</v>
-      </c>
-      <c r="J696" t="inlineStr">
+      <c r="H705" t="n">
+        <v>3</v>
+      </c>
+      <c r="I705" t="n">
+        <v>2</v>
+      </c>
+      <c r="J705" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K696" t="n">
-        <v>0</v>
-      </c>
-      <c r="L696" t="n">
+      <c r="K705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L705" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L705"/>
+  <dimension ref="A1:L714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29829,416 +29829,416 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>540433</v>
+        <v>540438</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-09-19T18:30:00Z</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D640" t="n">
-        <v>722</v>
+        <v>10</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="F640" t="n">
-        <v>1722</v>
+        <v>20</v>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K640" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L640" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>540434</v>
+        <v>540437</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-20T13:30:00Z</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D641" t="n">
-        <v>723</v>
+        <v>12</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="F641" t="n">
-        <v>1723</v>
+        <v>17</v>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K641" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L641" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>540435</v>
+        <v>540439</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-20T13:30:00Z</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D642" t="n">
-        <v>724</v>
+        <v>16</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="F642" t="n">
-        <v>1724</v>
+        <v>15</v>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="H642" t="n">
         <v>1</v>
       </c>
       <c r="I642" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K642" t="n">
         <v>0</v>
       </c>
       <c r="L642" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>540436</v>
+        <v>540440</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-09-20T13:30:00Z</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D643" t="n">
-        <v>725</v>
+        <v>2</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="F643" t="n">
-        <v>1725</v>
+        <v>5</v>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="H643" t="n">
         <v>1</v>
       </c>
       <c r="I643" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K643" t="n">
         <v>0</v>
       </c>
       <c r="L643" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>540437</v>
+        <v>540441</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-09-20T13:30:00Z</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D644" t="n">
-        <v>726</v>
+        <v>7</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F644" t="n">
-        <v>1726</v>
+        <v>44</v>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="H644" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K644" t="n">
         <v>3</v>
       </c>
       <c r="L644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>540438</v>
+        <v>540436</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-09-20T16:30:00Z</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D645" t="n">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F645" t="n">
-        <v>1727</v>
+        <v>1</v>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H645" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I645" t="n">
         <v>1</v>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L645" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>540439</v>
+        <v>540434</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2025-09-21T13:30:00Z</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D646" t="n">
-        <v>728</v>
+        <v>19</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F646" t="n">
-        <v>1728</v>
+        <v>28</v>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I646" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K646" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L646" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>540440</v>
+        <v>540433</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2025-09-21T15:30:00Z</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D647" t="n">
-        <v>729</v>
+        <v>3</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="F647" t="n">
-        <v>1729</v>
+        <v>18</v>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="H647" t="n">
         <v>1</v>
       </c>
       <c r="I647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>540441</v>
+        <v>540435</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2025-09-21T17:30:00Z</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D648" t="n">
-        <v>730</v>
+        <v>4</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="F648" t="n">
-        <v>1730</v>
+        <v>11</v>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="H648" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L648" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="649">
@@ -30247,37 +30247,37 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C649" t="n">
         <v>0</v>
       </c>
       <c r="D649" t="n">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F649" t="n">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>2</v>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K649" t="n">
@@ -30293,26 +30293,26 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C650" t="n">
         <v>0</v>
       </c>
       <c r="D650" t="n">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F650" t="n">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H650" t="n">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L650" t="n">
         <v>0</v>
@@ -30339,14 +30339,14 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C651" t="n">
         <v>0</v>
       </c>
       <c r="D651" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -30354,18 +30354,18 @@
         </is>
       </c>
       <c r="F651" t="n">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J651" t="inlineStr">
         <is>
@@ -30385,37 +30385,37 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C652" t="n">
         <v>0</v>
       </c>
       <c r="D652" t="n">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F652" t="n">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H652" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K652" t="n">
@@ -30431,14 +30431,14 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C653" t="n">
         <v>0</v>
       </c>
       <c r="D653" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -30446,15 +30446,15 @@
         </is>
       </c>
       <c r="F653" t="n">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         </is>
       </c>
       <c r="K653" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L653" t="n">
         <v>0</v>
@@ -30477,37 +30477,37 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C654" t="n">
         <v>0</v>
       </c>
       <c r="D654" t="n">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F654" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I654" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K654" t="n">
@@ -30523,22 +30523,22 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C655" t="n">
         <v>0</v>
       </c>
       <c r="D655" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F655" t="n">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="G655" t="inlineStr">
         <is>
@@ -30546,14 +30546,14 @@
         </is>
       </c>
       <c r="H655" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K655" t="n">
@@ -30569,22 +30569,22 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C656" t="n">
         <v>0</v>
       </c>
       <c r="D656" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F656" t="n">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="G656" t="inlineStr">
         <is>
@@ -30592,14 +30592,14 @@
         </is>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K656" t="n">
@@ -30615,37 +30615,37 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C657" t="n">
         <v>0</v>
       </c>
       <c r="D657" t="n">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F657" t="n">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K657" t="n">
@@ -30661,37 +30661,37 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C658" t="n">
         <v>0</v>
       </c>
       <c r="D658" t="n">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F658" t="n">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H658" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I658" t="n">
         <v>2</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K658" t="n">
@@ -30707,37 +30707,37 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C659" t="n">
         <v>0</v>
       </c>
       <c r="D659" t="n">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F659" t="n">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K659" t="n">
@@ -30753,14 +30753,14 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C660" t="n">
         <v>0</v>
       </c>
       <c r="D660" t="n">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -30768,18 +30768,18 @@
         </is>
       </c>
       <c r="F660" t="n">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J660" t="inlineStr">
         <is>
@@ -30799,37 +30799,37 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C661" t="n">
         <v>0</v>
       </c>
       <c r="D661" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F661" t="n">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I661" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K661" t="n">
@@ -30845,14 +30845,14 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C662" t="n">
         <v>0</v>
       </c>
       <c r="D662" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -30860,15 +30860,15 @@
         </is>
       </c>
       <c r="F662" t="n">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -30891,33 +30891,33 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C663" t="n">
         <v>0</v>
       </c>
       <c r="D663" t="n">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F663" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H663" t="n">
         <v>0</v>
       </c>
       <c r="I663" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J663" t="inlineStr">
         <is>
@@ -30937,37 +30937,37 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C664" t="n">
         <v>0</v>
       </c>
       <c r="D664" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F664" t="n">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K664" t="n">
@@ -30983,37 +30983,37 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C665" t="n">
         <v>0</v>
       </c>
       <c r="D665" t="n">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F665" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K665" t="n">
@@ -31029,33 +31029,33 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C666" t="n">
         <v>0</v>
       </c>
       <c r="D666" t="n">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F666" t="n">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H666" t="n">
         <v>1</v>
       </c>
       <c r="I666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J666" t="inlineStr">
         <is>
@@ -31075,37 +31075,37 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C667" t="n">
         <v>0</v>
       </c>
       <c r="D667" t="n">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>1740</v>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F667" t="n">
-        <v>1749</v>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I667" t="n">
         <v>2</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K667" t="n">
@@ -31121,22 +31121,22 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C668" t="n">
         <v>0</v>
       </c>
       <c r="D668" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F668" t="n">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="G668" t="inlineStr">
         <is>
@@ -31167,26 +31167,26 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C669" t="n">
         <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F669" t="n">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H669" t="n">
@@ -31213,26 +31213,26 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C670" t="n">
         <v>0</v>
       </c>
       <c r="D670" t="n">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F670" t="n">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H670" t="n">
@@ -31259,22 +31259,22 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C671" t="n">
         <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F671" t="n">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="G671" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         </is>
       </c>
       <c r="H671" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -31305,22 +31305,22 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C672" t="n">
         <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="G672" t="inlineStr">
         <is>
@@ -31351,14 +31351,14 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C673" t="n">
         <v>0</v>
       </c>
       <c r="D673" t="n">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -31366,22 +31366,22 @@
         </is>
       </c>
       <c r="F673" t="n">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K673" t="n">
@@ -31397,14 +31397,14 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C674" t="n">
         <v>0</v>
       </c>
       <c r="D674" t="n">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -31412,22 +31412,22 @@
         </is>
       </c>
       <c r="F674" t="n">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K674" t="n">
@@ -31443,22 +31443,22 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C675" t="n">
         <v>0</v>
       </c>
       <c r="D675" t="n">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F675" t="n">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         </is>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>3</v>
@@ -31489,37 +31489,37 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F676" t="n">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I676" t="n">
         <v>2</v>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K676" t="n">
@@ -31535,37 +31535,37 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
         <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K677" t="n">
@@ -31581,22 +31581,22 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>0</v>
       </c>
       <c r="D678" t="n">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F678" t="n">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
@@ -31607,11 +31607,11 @@
         <v>1</v>
       </c>
       <c r="I678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K678" t="n">
@@ -31627,14 +31627,14 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -31642,18 +31642,18 @@
         </is>
       </c>
       <c r="F679" t="n">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
@@ -31673,30 +31673,30 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F680" t="n">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -31719,37 +31719,37 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F681" t="n">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>1</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K681" t="n">
@@ -31765,14 +31765,14 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
         <v>0</v>
       </c>
       <c r="D682" t="n">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -31780,15 +31780,15 @@
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -31811,14 +31811,14 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
         <v>0</v>
       </c>
       <c r="D683" t="n">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -31826,22 +31826,22 @@
         </is>
       </c>
       <c r="F683" t="n">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H683" t="n">
         <v>1</v>
       </c>
       <c r="I683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K683" t="n">
@@ -31857,37 +31857,37 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F684" t="n">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I684" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K684" t="n">
@@ -31903,37 +31903,37 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -31949,37 +31949,37 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K686" t="n">
@@ -31995,37 +31995,37 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F687" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H687" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K687" t="n">
@@ -32041,37 +32041,37 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K688" t="n">
@@ -32087,33 +32087,33 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F689" t="n">
-        <v>1771</v>
-      </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J689" t="inlineStr">
         <is>
@@ -32133,33 +32133,33 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F690" t="n">
-        <v>1772</v>
-      </c>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
@@ -32179,37 +32179,37 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K691" t="n">
@@ -32225,37 +32225,37 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K692" t="n">
@@ -32271,37 +32271,37 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>1766</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F693" t="n">
-        <v>1775</v>
-      </c>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K693" t="n">
@@ -32317,37 +32317,37 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K694" t="n">
@@ -32363,33 +32363,33 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J695" t="inlineStr">
         <is>
@@ -32409,37 +32409,37 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F696" t="n">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K696" t="n">
@@ -32455,37 +32455,37 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C697" t="n">
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F697" t="n">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K697" t="n">
@@ -32501,37 +32501,37 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C698" t="n">
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F698" t="n">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K698" t="n">
@@ -32547,37 +32547,37 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C699" t="n">
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F699" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K699" t="n">
@@ -32593,33 +32593,33 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C700" t="n">
         <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F700" t="n">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J700" t="inlineStr">
         <is>
@@ -32639,37 +32639,37 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C701" t="n">
         <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F701" t="n">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K701" t="n">
@@ -32685,33 +32685,33 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C702" t="n">
         <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F702" t="n">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J702" t="inlineStr">
         <is>
@@ -32731,37 +32731,37 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C703" t="n">
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F703" t="n">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H703" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>1</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K703" t="n">
@@ -32777,37 +32777,37 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C704" t="n">
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F704" t="n">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H704" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I704" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K704" t="n">
@@ -32823,43 +32823,457 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
+          <t>2025-04-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0</v>
+      </c>
+      <c r="D705" t="n">
+        <v>778</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>1778</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H705" t="n">
+        <v>2</v>
+      </c>
+      <c r="I705" t="n">
+        <v>2</v>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>540499</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2025-04-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>0</v>
+      </c>
+      <c r="D706" t="n">
+        <v>779</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H706" t="n">
+        <v>3</v>
+      </c>
+      <c r="I706" t="n">
+        <v>1</v>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>540500</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0</v>
+      </c>
+      <c r="D707" t="n">
+        <v>780</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="H707" t="n">
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>2</v>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>540501</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>0</v>
+      </c>
+      <c r="D708" t="n">
+        <v>781</v>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H708" t="n">
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0</v>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>540502</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>0</v>
+      </c>
+      <c r="D709" t="n">
+        <v>782</v>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+      <c r="I709" t="n">
+        <v>4</v>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>540503</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>0</v>
+      </c>
+      <c r="D710" t="n">
+        <v>783</v>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H710" t="n">
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>1</v>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>540504</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>0</v>
+      </c>
+      <c r="D711" t="n">
+        <v>784</v>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H711" t="n">
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>2</v>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>540505</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>0</v>
+      </c>
+      <c r="D712" t="n">
+        <v>785</v>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H712" t="n">
+        <v>6</v>
+      </c>
+      <c r="I712" t="n">
+        <v>1</v>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>540506</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C705" t="n">
-        <v>0</v>
-      </c>
-      <c r="D705" t="n">
+      <c r="C713" t="n">
+        <v>0</v>
+      </c>
+      <c r="D713" t="n">
+        <v>786</v>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H713" t="n">
+        <v>4</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0</v>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>540507</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0</v>
+      </c>
+      <c r="D714" t="n">
         <v>787</v>
       </c>
-      <c r="E705" t="inlineStr">
+      <c r="E714" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F705" t="n">
+      <c r="F714" t="n">
         <v>1787</v>
       </c>
-      <c r="G705" t="inlineStr">
+      <c r="G714" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H705" t="n">
-        <v>3</v>
-      </c>
-      <c r="I705" t="n">
-        <v>2</v>
-      </c>
-      <c r="J705" t="inlineStr">
+      <c r="H714" t="n">
+        <v>3</v>
+      </c>
+      <c r="I714" t="n">
+        <v>2</v>
+      </c>
+      <c r="J714" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K705" t="n">
-        <v>0</v>
-      </c>
-      <c r="L705" t="n">
+      <c r="K714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L714" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L714"/>
+  <dimension ref="A1:L720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30247,221 +30247,221 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-09-26T18:30:00Z</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D649" t="n">
-        <v>722</v>
+        <v>5</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="F649" t="n">
-        <v>1722</v>
+        <v>12</v>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L649" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>540443</v>
+        <v>540444</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-27T13:30:00Z</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D650" t="n">
-        <v>723</v>
+        <v>15</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="F650" t="n">
-        <v>1723</v>
+        <v>4</v>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>2</v>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K650" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L650" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>540444</v>
+        <v>540446</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-27T13:30:00Z</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D651" t="n">
-        <v>724</v>
+        <v>11</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="F651" t="n">
-        <v>1724</v>
+        <v>721</v>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>1</v>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L651" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>540445</v>
+        <v>540448</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-09-27T13:30:00Z</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D652" t="n">
-        <v>725</v>
+        <v>20</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="F652" t="n">
-        <v>1725</v>
+        <v>3</v>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="H652" t="n">
         <v>1</v>
       </c>
       <c r="I652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K652" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L652" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>540446</v>
+        <v>540449</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-09-27T13:30:00Z</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D653" t="n">
-        <v>726</v>
+        <v>44</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="F653" t="n">
-        <v>1726</v>
+        <v>16</v>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="H653" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K653" t="n">
@@ -30473,83 +30473,83 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>540447</v>
+        <v>540445</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-09-27T16:30:00Z</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D654" t="n">
-        <v>727</v>
+        <v>18</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="F654" t="n">
-        <v>1727</v>
+        <v>19</v>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H654" t="n">
         <v>4</v>
       </c>
       <c r="I654" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>540448</v>
+        <v>540450</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C655" t="n">
         <v>0</v>
       </c>
       <c r="D655" t="n">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F655" t="n">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H655" t="n">
         <v>1</v>
       </c>
       <c r="I655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J655" t="inlineStr">
         <is>
@@ -30565,45 +30565,45 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>540449</v>
+        <v>540451</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C656" t="n">
         <v>0</v>
       </c>
       <c r="D656" t="n">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>1723</v>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F656" t="n">
-        <v>1729</v>
-      </c>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>Magdeburg</t>
-        </is>
-      </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I656" t="n">
         <v>2</v>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L656" t="n">
         <v>0</v>
@@ -30611,18 +30611,18 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>540450</v>
+        <v>540452</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C657" t="n">
         <v>0</v>
       </c>
       <c r="D657" t="n">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -30630,22 +30630,22 @@
         </is>
       </c>
       <c r="F657" t="n">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H657" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K657" t="n">
@@ -30657,41 +30657,41 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>540451</v>
+        <v>540453</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C658" t="n">
         <v>0</v>
       </c>
       <c r="D658" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F658" t="n">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K658" t="n">
@@ -30703,45 +30703,45 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>540452</v>
+        <v>540454</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C659" t="n">
         <v>0</v>
       </c>
       <c r="D659" t="n">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F659" t="n">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K659" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L659" t="n">
         <v>0</v>
@@ -30749,18 +30749,18 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>540453</v>
+        <v>540455</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C660" t="n">
         <v>0</v>
       </c>
       <c r="D660" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -30768,22 +30768,22 @@
         </is>
       </c>
       <c r="F660" t="n">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K660" t="n">
@@ -30795,41 +30795,41 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>540454</v>
+        <v>540456</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C661" t="n">
         <v>0</v>
       </c>
       <c r="D661" t="n">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>1728</v>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F661" t="n">
-        <v>1734</v>
-      </c>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>Karlsruhe</t>
-        </is>
-      </c>
       <c r="H661" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K661" t="n">
@@ -30841,18 +30841,18 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>540455</v>
+        <v>540457</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C662" t="n">
         <v>0</v>
       </c>
       <c r="D662" t="n">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -30860,22 +30860,22 @@
         </is>
       </c>
       <c r="F662" t="n">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K662" t="n">
@@ -30887,41 +30887,41 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>540456</v>
+        <v>540458</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C663" t="n">
         <v>0</v>
       </c>
       <c r="D663" t="n">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F663" t="n">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K663" t="n">
@@ -30933,26 +30933,26 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>540457</v>
+        <v>540459</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C664" t="n">
         <v>0</v>
       </c>
       <c r="D664" t="n">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F664" t="n">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G664" t="inlineStr">
         <is>
@@ -30960,14 +30960,14 @@
         </is>
       </c>
       <c r="H664" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K664" t="n">
@@ -30979,41 +30979,41 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>540458</v>
+        <v>540460</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C665" t="n">
         <v>0</v>
       </c>
       <c r="D665" t="n">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>1732</v>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F665" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>Magdeburg</t>
-        </is>
-      </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K665" t="n">
@@ -31025,26 +31025,26 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>540459</v>
+        <v>540461</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C666" t="n">
         <v>0</v>
       </c>
       <c r="D666" t="n">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F666" t="n">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="G666" t="inlineStr">
         <is>
@@ -31052,14 +31052,14 @@
         </is>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I666" t="n">
         <v>2</v>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K666" t="n">
@@ -31071,41 +31071,41 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>540460</v>
+        <v>540462</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C667" t="n">
         <v>0</v>
       </c>
       <c r="D667" t="n">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F667" t="n">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H667" t="n">
         <v>4</v>
       </c>
       <c r="I667" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K667" t="n">
@@ -31117,41 +31117,41 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>540461</v>
+        <v>540463</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C668" t="n">
         <v>0</v>
       </c>
       <c r="D668" t="n">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F668" t="n">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K668" t="n">
@@ -31163,41 +31163,41 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>540462</v>
+        <v>540464</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C669" t="n">
         <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
+          <t>Fortuna Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>1736</v>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F669" t="n">
-        <v>1742</v>
-      </c>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>Nurnberg</t>
-        </is>
-      </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K669" t="n">
@@ -31209,34 +31209,34 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>540463</v>
+        <v>540465</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C670" t="n">
         <v>0</v>
       </c>
       <c r="D670" t="n">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F670" t="n">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -31255,37 +31255,37 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>540464</v>
+        <v>540466</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C671" t="n">
         <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F671" t="n">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J671" t="inlineStr">
         <is>
@@ -31301,37 +31301,37 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>540465</v>
+        <v>540467</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C672" t="n">
         <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J672" t="inlineStr">
         <is>
@@ -31347,41 +31347,41 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>540466</v>
+        <v>540468</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C673" t="n">
         <v>0</v>
       </c>
       <c r="D673" t="n">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>1740</v>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F673" t="n">
-        <v>1746</v>
-      </c>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>Schalke 04</t>
-        </is>
-      </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I673" t="n">
         <v>2</v>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K673" t="n">
@@ -31393,41 +31393,41 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>540467</v>
+        <v>540469</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C674" t="n">
         <v>0</v>
       </c>
       <c r="D674" t="n">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
+          <t>Hertha</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>1741</v>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F674" t="n">
-        <v>1747</v>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>Hannover</t>
-        </is>
-      </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K674" t="n">
@@ -31439,41 +31439,41 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>540468</v>
+        <v>540470</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C675" t="n">
         <v>0</v>
       </c>
       <c r="D675" t="n">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F675" t="n">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H675" t="n">
         <v>1</v>
       </c>
       <c r="I675" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K675" t="n">
@@ -31485,41 +31485,41 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>540469</v>
+        <v>540471</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>1743</v>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F676" t="n">
-        <v>1749</v>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K676" t="n">
@@ -31531,41 +31531,41 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>540470</v>
+        <v>540472</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
         <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K677" t="n">
@@ -31577,41 +31577,41 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>540471</v>
+        <v>540473</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>0</v>
       </c>
       <c r="D678" t="n">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F678" t="n">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K678" t="n">
@@ -31623,41 +31623,41 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>540472</v>
+        <v>540474</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F679" t="n">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K679" t="n">
@@ -31669,41 +31669,41 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>540473</v>
+        <v>540475</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F680" t="n">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H680" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K680" t="n">
@@ -31715,37 +31715,37 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>540474</v>
+        <v>540476</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F681" t="n">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
@@ -31761,18 +31761,18 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>540475</v>
+        <v>540477</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
         <v>0</v>
       </c>
       <c r="D682" t="n">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -31780,22 +31780,22 @@
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K682" t="n">
@@ -31807,41 +31807,41 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>540476</v>
+        <v>540478</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
         <v>0</v>
       </c>
       <c r="D683" t="n">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F683" t="n">
-        <v>1756</v>
-      </c>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K683" t="n">
@@ -31853,26 +31853,26 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>540477</v>
+        <v>540479</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F684" t="n">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
@@ -31880,14 +31880,14 @@
         </is>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K684" t="n">
@@ -31899,41 +31899,41 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>540478</v>
+        <v>540480</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -31945,18 +31945,18 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>540479</v>
+        <v>540481</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -31964,22 +31964,22 @@
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K686" t="n">
@@ -31991,37 +31991,37 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>540480</v>
+        <v>540482</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
@@ -32037,30 +32037,30 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>540481</v>
+        <v>540483</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>1755</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
-        </is>
-      </c>
-      <c r="F688" t="n">
-        <v>1761</v>
-      </c>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H688" t="n">
@@ -32083,34 +32083,34 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>540482</v>
+        <v>540484</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -32129,26 +32129,26 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>540483</v>
+        <v>540485</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
@@ -32156,14 +32156,14 @@
         </is>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I690" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K690" t="n">
@@ -32175,41 +32175,41 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>540484</v>
+        <v>540486</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K691" t="n">
@@ -32221,37 +32221,37 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>540485</v>
+        <v>540487</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
@@ -32267,41 +32267,41 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>540486</v>
+        <v>540488</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H693" t="n">
         <v>1</v>
       </c>
       <c r="I693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K693" t="n">
@@ -32313,34 +32313,34 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>540487</v>
+        <v>540489</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -32359,26 +32359,26 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>540488</v>
+        <v>540490</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
@@ -32386,14 +32386,14 @@
         </is>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K695" t="n">
@@ -32405,41 +32405,41 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>540489</v>
+        <v>540491</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F696" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H696" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>1</v>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K696" t="n">
@@ -32451,41 +32451,41 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>540490</v>
+        <v>540492</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C697" t="n">
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F697" t="n">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K697" t="n">
@@ -32497,18 +32497,18 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>540491</v>
+        <v>540493</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C698" t="n">
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -32516,22 +32516,22 @@
         </is>
       </c>
       <c r="F698" t="n">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>1</v>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K698" t="n">
@@ -32543,41 +32543,41 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>540492</v>
+        <v>540494</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C699" t="n">
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F699" t="n">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K699" t="n">
@@ -32589,18 +32589,18 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>540493</v>
+        <v>540495</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C700" t="n">
         <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -32608,22 +32608,22 @@
         </is>
       </c>
       <c r="F700" t="n">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K700" t="n">
@@ -32635,37 +32635,37 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>540494</v>
+        <v>540496</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C701" t="n">
         <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F701" t="n">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H701" t="n">
         <v>0</v>
       </c>
       <c r="I701" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J701" t="inlineStr">
         <is>
@@ -32681,41 +32681,41 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>540495</v>
+        <v>540497</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C702" t="n">
         <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F702" t="n">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I702" t="n">
         <v>1</v>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K702" t="n">
@@ -32727,41 +32727,41 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>540496</v>
+        <v>540498</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C703" t="n">
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F703" t="n">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K703" t="n">
@@ -32773,41 +32773,41 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>540497</v>
+        <v>540499</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C704" t="n">
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F704" t="n">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H704" t="n">
         <v>2</v>
       </c>
       <c r="I704" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K704" t="n">
@@ -32819,37 +32819,37 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>540498</v>
+        <v>540500</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C705" t="n">
         <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F705" t="n">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J705" t="inlineStr">
         <is>
@@ -32865,41 +32865,41 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>540499</v>
+        <v>540501</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C706" t="n">
         <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>1773</v>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F706" t="n">
-        <v>1779</v>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>Preußen Münster</t>
-        </is>
-      </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K706" t="n">
@@ -32911,37 +32911,37 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>540500</v>
+        <v>540502</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C707" t="n">
         <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>1774</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F707" t="n">
-        <v>1780</v>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>Karlsruhe</t>
-        </is>
-      </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J707" t="inlineStr">
         <is>
@@ -32957,41 +32957,41 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>540501</v>
+        <v>540503</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C708" t="n">
         <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F708" t="n">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K708" t="n">
@@ -33003,41 +33003,41 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>540502</v>
+        <v>540504</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C709" t="n">
         <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F709" t="n">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K709" t="n">
@@ -33049,41 +33049,41 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>540503</v>
+        <v>540505</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C710" t="n">
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F710" t="n">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I710" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K710" t="n">
@@ -33095,41 +33095,41 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>540504</v>
+        <v>540506</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="C711" t="n">
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F711" t="n">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I711" t="n">
         <v>2</v>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K711" t="n">
@@ -33141,34 +33141,34 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>540505</v>
+        <v>540507</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>0</v>
       </c>
       <c r="D712" t="n">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F712" t="n">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H712" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I712" t="n">
         <v>1</v>
@@ -33187,41 +33187,41 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>540506</v>
+        <v>540508</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-27T00:00:00Z</t>
         </is>
       </c>
       <c r="C713" t="n">
         <v>0</v>
       </c>
       <c r="D713" t="n">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F713" t="n">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H713" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K713" t="n">
@@ -33233,47 +33233,323 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>540507</v>
+        <v>540509</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0</v>
+      </c>
+      <c r="D714" t="n">
+        <v>781</v>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F714" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H714" t="n">
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0</v>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>540510</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>0</v>
+      </c>
+      <c r="D715" t="n">
+        <v>782</v>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F715" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="n">
+        <v>4</v>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>540511</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>0</v>
+      </c>
+      <c r="D716" t="n">
+        <v>783</v>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F716" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H716" t="n">
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>1</v>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>540512</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0</v>
+      </c>
+      <c r="D717" t="n">
+        <v>784</v>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F717" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H717" t="n">
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>2</v>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>540513</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>0</v>
+      </c>
+      <c r="D718" t="n">
+        <v>785</v>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F718" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H718" t="n">
+        <v>6</v>
+      </c>
+      <c r="I718" t="n">
+        <v>1</v>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>540514</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C714" t="n">
-        <v>0</v>
-      </c>
-      <c r="D714" t="n">
+      <c r="C719" t="n">
+        <v>0</v>
+      </c>
+      <c r="D719" t="n">
+        <v>786</v>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F719" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H719" t="n">
+        <v>4</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0</v>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>540515</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>0</v>
+      </c>
+      <c r="D720" t="n">
         <v>787</v>
       </c>
-      <c r="E714" t="inlineStr">
+      <c r="E720" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F714" t="n">
+      <c r="F720" t="n">
         <v>1787</v>
       </c>
-      <c r="G714" t="inlineStr">
+      <c r="G720" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H714" t="n">
-        <v>3</v>
-      </c>
-      <c r="I714" t="n">
-        <v>2</v>
-      </c>
-      <c r="J714" t="inlineStr">
+      <c r="H720" t="n">
+        <v>3</v>
+      </c>
+      <c r="I720" t="n">
+        <v>2</v>
+      </c>
+      <c r="J720" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K714" t="n">
-        <v>0</v>
-      </c>
-      <c r="L714" t="n">
+      <c r="K720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L720" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L720"/>
+  <dimension ref="A1:L723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30519,164 +30519,164 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>540450</v>
+        <v>540443</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-09-28T13:30:00Z</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D655" t="n">
-        <v>722</v>
+        <v>17</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="F655" t="n">
-        <v>1722</v>
+        <v>2</v>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="H655" t="n">
         <v>1</v>
       </c>
       <c r="I655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K655" t="n">
         <v>0</v>
       </c>
       <c r="L655" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>540451</v>
+        <v>540450</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-28T15:30:00Z</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D656" t="n">
-        <v>723</v>
+        <v>1</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F656" t="n">
-        <v>1723</v>
+        <v>10</v>
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>2</v>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K656" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L656" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>540452</v>
+        <v>540447</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-28T17:30:00Z</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D657" t="n">
-        <v>724</v>
+        <v>28</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>7</v>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F657" t="n">
-        <v>1724</v>
-      </c>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K657" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>540453</v>
+        <v>540451</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C658" t="n">
         <v>0</v>
       </c>
       <c r="D658" t="n">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F658" t="n">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="G658" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
         <v>1</v>
       </c>
       <c r="I658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K658" t="n">
@@ -30703,45 +30703,45 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>540454</v>
+        <v>540452</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C659" t="n">
         <v>0</v>
       </c>
       <c r="D659" t="n">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>1723</v>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F659" t="n">
-        <v>1726</v>
-      </c>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>Braunschweig</t>
-        </is>
-      </c>
       <c r="H659" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K659" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L659" t="n">
         <v>0</v>
@@ -30749,18 +30749,18 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>540455</v>
+        <v>540453</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C660" t="n">
         <v>0</v>
       </c>
       <c r="D660" t="n">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -30768,22 +30768,22 @@
         </is>
       </c>
       <c r="F660" t="n">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H660" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>1</v>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K660" t="n">
@@ -30795,41 +30795,41 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>540456</v>
+        <v>540454</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C661" t="n">
         <v>0</v>
       </c>
       <c r="D661" t="n">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F661" t="n">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H661" t="n">
         <v>1</v>
       </c>
       <c r="I661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K661" t="n">
@@ -30841,18 +30841,18 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>540457</v>
+        <v>540455</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C662" t="n">
         <v>0</v>
       </c>
       <c r="D662" t="n">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -30860,26 +30860,26 @@
         </is>
       </c>
       <c r="F662" t="n">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K662" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L662" t="n">
         <v>0</v>
@@ -30887,18 +30887,18 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>540458</v>
+        <v>540456</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C663" t="n">
         <v>0</v>
       </c>
       <c r="D663" t="n">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -30906,18 +30906,18 @@
         </is>
       </c>
       <c r="F663" t="n">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H663" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J663" t="inlineStr">
         <is>
@@ -30933,26 +30933,26 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>540459</v>
+        <v>540457</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C664" t="n">
         <v>0</v>
       </c>
       <c r="D664" t="n">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F664" t="n">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="G664" t="inlineStr">
         <is>
@@ -30960,14 +30960,14 @@
         </is>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K664" t="n">
@@ -30979,41 +30979,41 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>540460</v>
+        <v>540458</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C665" t="n">
         <v>0</v>
       </c>
       <c r="D665" t="n">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F665" t="n">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>2</v>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K665" t="n">
@@ -31025,18 +31025,18 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>540461</v>
+        <v>540459</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C666" t="n">
         <v>0</v>
       </c>
       <c r="D666" t="n">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -31044,22 +31044,22 @@
         </is>
       </c>
       <c r="F666" t="n">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K666" t="n">
@@ -31071,37 +31071,37 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>540462</v>
+        <v>540460</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C667" t="n">
         <v>0</v>
       </c>
       <c r="D667" t="n">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
+          <t>Fortuna Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>1731</v>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F667" t="n">
-        <v>1734</v>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>Karlsruhe</t>
-        </is>
-      </c>
       <c r="H667" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I667" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
@@ -31117,41 +31117,41 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>540463</v>
+        <v>540461</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C668" t="n">
         <v>0</v>
       </c>
       <c r="D668" t="n">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F668" t="n">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H668" t="n">
         <v>2</v>
       </c>
       <c r="I668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K668" t="n">
@@ -31163,41 +31163,41 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>540464</v>
+        <v>540462</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C669" t="n">
         <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F669" t="n">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K669" t="n">
@@ -31209,41 +31209,41 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>540465</v>
+        <v>540463</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C670" t="n">
         <v>0</v>
       </c>
       <c r="D670" t="n">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F670" t="n">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H670" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I670" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K670" t="n">
@@ -31255,37 +31255,37 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>540466</v>
+        <v>540464</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C671" t="n">
         <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F671" t="n">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J671" t="inlineStr">
         <is>
@@ -31301,37 +31301,37 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>540467</v>
+        <v>540465</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C672" t="n">
         <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J672" t="inlineStr">
         <is>
@@ -31347,37 +31347,37 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>540468</v>
+        <v>540466</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C673" t="n">
         <v>0</v>
       </c>
       <c r="D673" t="n">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F673" t="n">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H673" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J673" t="inlineStr">
         <is>
@@ -31393,41 +31393,41 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>540469</v>
+        <v>540467</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C674" t="n">
         <v>0</v>
       </c>
       <c r="D674" t="n">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F674" t="n">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I674" t="n">
         <v>1</v>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K674" t="n">
@@ -31439,41 +31439,41 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>540470</v>
+        <v>540468</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C675" t="n">
         <v>0</v>
       </c>
       <c r="D675" t="n">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F675" t="n">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H675" t="n">
         <v>1</v>
       </c>
       <c r="I675" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K675" t="n">
@@ -31485,26 +31485,26 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>540471</v>
+        <v>540469</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F676" t="n">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
@@ -31512,10 +31512,10 @@
         </is>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J676" t="inlineStr">
         <is>
@@ -31531,41 +31531,41 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>540472</v>
+        <v>540470</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
         <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
+          <t>Hertha</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>1741</v>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F677" t="n">
-        <v>1744</v>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K677" t="n">
@@ -31577,41 +31577,41 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>540473</v>
+        <v>540471</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>0</v>
       </c>
       <c r="D678" t="n">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F678" t="n">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K678" t="n">
@@ -31623,41 +31623,41 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>540474</v>
+        <v>540472</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>1743</v>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F679" t="n">
-        <v>1746</v>
-      </c>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>Schalke 04</t>
-        </is>
-      </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K679" t="n">
@@ -31669,18 +31669,18 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>540475</v>
+        <v>540473</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -31688,22 +31688,22 @@
         </is>
       </c>
       <c r="F680" t="n">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K680" t="n">
@@ -31715,37 +31715,37 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>540476</v>
+        <v>540474</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F681" t="n">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
@@ -31761,18 +31761,18 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>540477</v>
+        <v>540475</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
         <v>0</v>
       </c>
       <c r="D682" t="n">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -31780,11 +31780,11 @@
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H682" t="n">
@@ -31807,41 +31807,41 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>540478</v>
+        <v>540476</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
         <v>0</v>
       </c>
       <c r="D683" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F683" t="n">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K683" t="n">
@@ -31853,26 +31853,26 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>540479</v>
+        <v>540477</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F684" t="n">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
@@ -31883,11 +31883,11 @@
         <v>1</v>
       </c>
       <c r="I684" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K684" t="n">
@@ -31899,41 +31899,41 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>540480</v>
+        <v>540478</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -31945,41 +31945,41 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>540481</v>
+        <v>540479</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H686" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K686" t="n">
@@ -31991,41 +31991,41 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>540482</v>
+        <v>540480</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>1</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K687" t="n">
@@ -32037,37 +32037,37 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>540483</v>
+        <v>540481</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J688" t="inlineStr">
         <is>
@@ -32083,34 +32083,34 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>540484</v>
+        <v>540482</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -32129,37 +32129,37 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>540485</v>
+        <v>540483</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
@@ -32175,26 +32175,26 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>540486</v>
+        <v>540484</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
@@ -32205,11 +32205,11 @@
         <v>1</v>
       </c>
       <c r="I691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K691" t="n">
@@ -32221,41 +32221,41 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>540487</v>
+        <v>540485</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K692" t="n">
@@ -32267,26 +32267,26 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>540488</v>
+        <v>540486</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
@@ -32294,10 +32294,10 @@
         </is>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I693" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
@@ -32313,41 +32313,41 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>540489</v>
+        <v>540487</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>1758</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F694" t="n">
-        <v>1761</v>
-      </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>Schalke 04</t>
-        </is>
-      </c>
       <c r="H694" t="n">
         <v>1</v>
       </c>
       <c r="I694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K694" t="n">
@@ -32359,41 +32359,41 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>540490</v>
+        <v>540488</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K695" t="n">
@@ -32405,26 +32405,26 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>540491</v>
+        <v>540489</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F696" t="n">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
@@ -32435,11 +32435,11 @@
         <v>1</v>
       </c>
       <c r="I696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K696" t="n">
@@ -32451,34 +32451,34 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>540492</v>
+        <v>540490</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C697" t="n">
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F697" t="n">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -32497,41 +32497,41 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>540493</v>
+        <v>540491</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C698" t="n">
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F698" t="n">
-        <v>1765</v>
-      </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K698" t="n">
@@ -32543,41 +32543,41 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>540494</v>
+        <v>540492</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C699" t="n">
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F699" t="n">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H699" t="n">
         <v>1</v>
       </c>
       <c r="I699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K699" t="n">
@@ -32589,34 +32589,34 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>540495</v>
+        <v>540493</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C700" t="n">
         <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F700" t="n">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -32635,41 +32635,41 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>540496</v>
+        <v>540494</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C701" t="n">
         <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F701" t="n">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>1</v>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K701" t="n">
@@ -32681,37 +32681,37 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>540497</v>
+        <v>540495</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C702" t="n">
         <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F702" t="n">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H702" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J702" t="inlineStr">
         <is>
@@ -32727,26 +32727,26 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>540498</v>
+        <v>540496</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C703" t="n">
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F703" t="n">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
@@ -32754,14 +32754,14 @@
         </is>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K703" t="n">
@@ -32773,41 +32773,41 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>540499</v>
+        <v>540497</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C704" t="n">
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>1768</v>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F704" t="n">
-        <v>1771</v>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>1</v>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K704" t="n">
@@ -32819,18 +32819,18 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>540500</v>
+        <v>540498</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C705" t="n">
         <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -32838,22 +32838,22 @@
         </is>
       </c>
       <c r="F705" t="n">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K705" t="n">
@@ -32865,37 +32865,37 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>540501</v>
+        <v>540499</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C706" t="n">
         <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F706" t="n">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J706" t="inlineStr">
         <is>
@@ -32911,41 +32911,41 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>540502</v>
+        <v>540500</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C707" t="n">
         <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F707" t="n">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K707" t="n">
@@ -32957,41 +32957,41 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>540503</v>
+        <v>540501</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C708" t="n">
         <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F708" t="n">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H708" t="n">
         <v>0</v>
       </c>
       <c r="I708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K708" t="n">
@@ -33003,26 +33003,26 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>540504</v>
+        <v>540502</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C709" t="n">
         <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F709" t="n">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
@@ -33033,11 +33033,11 @@
         <v>1</v>
       </c>
       <c r="I709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K709" t="n">
@@ -33049,37 +33049,37 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>540505</v>
+        <v>540503</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C710" t="n">
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>1774</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F710" t="n">
-        <v>1777</v>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>Braunschweig</t>
-        </is>
-      </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J710" t="inlineStr">
         <is>
@@ -33095,41 +33095,41 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>540506</v>
+        <v>540504</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C711" t="n">
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F711" t="n">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K711" t="n">
@@ -33141,41 +33141,41 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>540507</v>
+        <v>540505</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>0</v>
       </c>
       <c r="D712" t="n">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>1776</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F712" t="n">
-        <v>1779</v>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>Preußen Münster</t>
-        </is>
-      </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>1</v>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K712" t="n">
@@ -33187,18 +33187,18 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>540508</v>
+        <v>540506</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C713" t="n">
         <v>0</v>
       </c>
       <c r="D713" t="n">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -33206,18 +33206,18 @@
         </is>
       </c>
       <c r="F713" t="n">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I713" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J713" t="inlineStr">
         <is>
@@ -33233,41 +33233,41 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>540509</v>
+        <v>540507</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="C714" t="n">
         <v>0</v>
       </c>
       <c r="D714" t="n">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F714" t="n">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K714" t="n">
@@ -33279,41 +33279,41 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>540510</v>
+        <v>540508</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C715" t="n">
         <v>0</v>
       </c>
       <c r="D715" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F715" t="n">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I715" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K715" t="n">
@@ -33325,41 +33325,41 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>540511</v>
+        <v>540509</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-27T00:00:00Z</t>
         </is>
       </c>
       <c r="C716" t="n">
         <v>0</v>
       </c>
       <c r="D716" t="n">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F716" t="n">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H716" t="n">
         <v>1</v>
       </c>
       <c r="I716" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K716" t="n">
@@ -33371,26 +33371,26 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>540512</v>
+        <v>540510</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-27T00:00:00Z</t>
         </is>
       </c>
       <c r="C717" t="n">
         <v>0</v>
       </c>
       <c r="D717" t="n">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F717" t="n">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="G717" t="inlineStr">
         <is>
@@ -33401,11 +33401,11 @@
         <v>1</v>
       </c>
       <c r="I717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K717" t="n">
@@ -33417,41 +33417,41 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>540513</v>
+        <v>540511</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-05-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C718" t="n">
         <v>0</v>
       </c>
       <c r="D718" t="n">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F718" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F718" t="n">
-        <v>1785</v>
-      </c>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>Ulm</t>
-        </is>
-      </c>
       <c r="H718" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K718" t="n">
@@ -33463,18 +33463,18 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>540514</v>
+        <v>540512</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-05-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C719" t="n">
         <v>0</v>
       </c>
       <c r="D719" t="n">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -33482,22 +33482,22 @@
         </is>
       </c>
       <c r="F719" t="n">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H719" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K719" t="n">
@@ -33509,47 +33509,185 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
+        <v>540513</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>0</v>
+      </c>
+      <c r="D720" t="n">
+        <v>784</v>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F720" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H720" t="n">
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>2</v>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>540514</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0</v>
+      </c>
+      <c r="D721" t="n">
+        <v>785</v>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F721" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H721" t="n">
+        <v>6</v>
+      </c>
+      <c r="I721" t="n">
+        <v>1</v>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
         <v>540515</v>
       </c>
-      <c r="B720" t="inlineStr">
+      <c r="B722" t="inlineStr">
         <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C720" t="n">
-        <v>0</v>
-      </c>
-      <c r="D720" t="n">
+      <c r="C722" t="n">
+        <v>0</v>
+      </c>
+      <c r="D722" t="n">
+        <v>786</v>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F722" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H722" t="n">
+        <v>4</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0</v>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>540516</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+      <c r="D723" t="n">
         <v>787</v>
       </c>
-      <c r="E720" t="inlineStr">
+      <c r="E723" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F720" t="n">
+      <c r="F723" t="n">
         <v>1787</v>
       </c>
-      <c r="G720" t="inlineStr">
+      <c r="G723" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H720" t="n">
-        <v>3</v>
-      </c>
-      <c r="I720" t="n">
-        <v>2</v>
-      </c>
-      <c r="J720" t="inlineStr">
+      <c r="H723" t="n">
+        <v>3</v>
+      </c>
+      <c r="I723" t="n">
+        <v>2</v>
+      </c>
+      <c r="J723" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K720" t="n">
-        <v>0</v>
-      </c>
-      <c r="L720" t="n">
+      <c r="K723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L723" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L723"/>
+  <dimension ref="A1:L732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30657,94 +30657,94 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>540451</v>
+        <v>540458</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-10-03T18:30:00Z</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D658" t="n">
-        <v>722</v>
+        <v>2</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>1</v>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F658" t="n">
-        <v>1722</v>
-      </c>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>Hamburger SV</t>
-        </is>
-      </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K658" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L658" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>540452</v>
+        <v>540451</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-10-04T13:30:00Z</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D659" t="n">
-        <v>723</v>
+        <v>3</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="F659" t="n">
-        <v>1723</v>
+        <v>28</v>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="H659" t="n">
         <v>2</v>
       </c>
       <c r="I659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K659" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L659" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -30753,26 +30753,26 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-10-04T13:30:00Z</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D660" t="n">
-        <v>724</v>
+        <v>4</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="F660" t="n">
-        <v>1724</v>
+        <v>721</v>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H660" t="n">
@@ -30783,14 +30783,14 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K660" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L660" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="661">
@@ -30799,26 +30799,26 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-10-04T13:30:00Z</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D661" t="n">
-        <v>725</v>
+        <v>12</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="F661" t="n">
-        <v>1725</v>
+        <v>20</v>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="H661" t="n">
@@ -30829,53 +30829,53 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K661" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L661" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>540455</v>
+        <v>540457</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-10-04T13:30:00Z</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D662" t="n">
-        <v>726</v>
+        <v>16</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="F662" t="n">
-        <v>1726</v>
+        <v>11</v>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="H662" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K662" t="n">
@@ -30887,91 +30887,91 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>540456</v>
+        <v>540452</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-10-04T16:30:00Z</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D663" t="n">
-        <v>727</v>
+        <v>19</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F663" t="n">
-        <v>1727</v>
+        <v>5</v>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="H663" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K663" t="n">
         <v>0</v>
       </c>
       <c r="L663" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>540457</v>
+        <v>540455</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2025-10-05T13:30:00Z</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D664" t="n">
-        <v>728</v>
+        <v>10</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="F664" t="n">
-        <v>1728</v>
+        <v>44</v>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="H664" t="n">
         <v>1</v>
       </c>
       <c r="I664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K664" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L664" t="n">
         <v>0</v>
@@ -30979,94 +30979,94 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>540458</v>
+        <v>540459</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2025-10-05T15:30:00Z</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D665" t="n">
-        <v>729</v>
+        <v>7</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F665" t="n">
-        <v>1729</v>
+        <v>15</v>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K665" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>540459</v>
+        <v>540456</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2025-10-05T17:30:00Z</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D666" t="n">
-        <v>730</v>
+        <v>18</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="F666" t="n">
-        <v>1730</v>
+        <v>17</v>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="H666" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -31075,37 +31075,37 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C667" t="n">
         <v>0</v>
       </c>
       <c r="D667" t="n">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F667" t="n">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>2</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K667" t="n">
@@ -31121,26 +31121,26 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C668" t="n">
         <v>0</v>
       </c>
       <c r="D668" t="n">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F668" t="n">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H668" t="n">
@@ -31155,7 +31155,7 @@
         </is>
       </c>
       <c r="K668" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L668" t="n">
         <v>0</v>
@@ -31167,14 +31167,14 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C669" t="n">
         <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -31182,18 +31182,18 @@
         </is>
       </c>
       <c r="F669" t="n">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J669" t="inlineStr">
         <is>
@@ -31213,37 +31213,37 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C670" t="n">
         <v>0</v>
       </c>
       <c r="D670" t="n">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F670" t="n">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H670" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K670" t="n">
@@ -31259,14 +31259,14 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C671" t="n">
         <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -31274,15 +31274,15 @@
         </is>
       </c>
       <c r="F671" t="n">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L671" t="n">
         <v>0</v>
@@ -31305,37 +31305,37 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C672" t="n">
         <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I672" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K672" t="n">
@@ -31351,22 +31351,22 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C673" t="n">
         <v>0</v>
       </c>
       <c r="D673" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F673" t="n">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="G673" t="inlineStr">
         <is>
@@ -31374,14 +31374,14 @@
         </is>
       </c>
       <c r="H673" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K673" t="n">
@@ -31397,22 +31397,22 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C674" t="n">
         <v>0</v>
       </c>
       <c r="D674" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F674" t="n">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
@@ -31420,14 +31420,14 @@
         </is>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K674" t="n">
@@ -31443,37 +31443,37 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C675" t="n">
         <v>0</v>
       </c>
       <c r="D675" t="n">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F675" t="n">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K675" t="n">
@@ -31489,37 +31489,37 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F676" t="n">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H676" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I676" t="n">
         <v>2</v>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K676" t="n">
@@ -31535,37 +31535,37 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
         <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K677" t="n">
@@ -31581,14 +31581,14 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>0</v>
       </c>
       <c r="D678" t="n">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -31596,18 +31596,18 @@
         </is>
       </c>
       <c r="F678" t="n">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
@@ -31627,37 +31627,37 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F679" t="n">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I679" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K679" t="n">
@@ -31673,14 +31673,14 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -31688,15 +31688,15 @@
         </is>
       </c>
       <c r="F680" t="n">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -31719,33 +31719,33 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F681" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H681" t="n">
         <v>0</v>
       </c>
       <c r="I681" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
@@ -31765,37 +31765,37 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
         <v>0</v>
       </c>
       <c r="D682" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K682" t="n">
@@ -31811,37 +31811,37 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
         <v>0</v>
       </c>
       <c r="D683" t="n">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F683" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K683" t="n">
@@ -31857,33 +31857,33 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F684" t="n">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H684" t="n">
         <v>1</v>
       </c>
       <c r="I684" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
@@ -31903,37 +31903,37 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>1740</v>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F685" t="n">
-        <v>1749</v>
-      </c>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I685" t="n">
         <v>2</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -31949,22 +31949,22 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
@@ -31995,26 +31995,26 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H687" t="n">
@@ -32041,26 +32041,26 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H688" t="n">
@@ -32087,22 +32087,22 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         </is>
       </c>
       <c r="H689" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -32133,22 +32133,22 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
@@ -32179,14 +32179,14 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -32194,22 +32194,22 @@
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K691" t="n">
@@ -32225,14 +32225,14 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -32240,22 +32240,22 @@
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K692" t="n">
@@ -32271,22 +32271,22 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         </is>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>3</v>
@@ -32317,37 +32317,37 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I694" t="n">
         <v>2</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K694" t="n">
@@ -32363,37 +32363,37 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K695" t="n">
@@ -32409,22 +32409,22 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F696" t="n">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
@@ -32435,11 +32435,11 @@
         <v>1</v>
       </c>
       <c r="I696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K696" t="n">
@@ -32455,14 +32455,14 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C697" t="n">
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -32470,18 +32470,18 @@
         </is>
       </c>
       <c r="F697" t="n">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J697" t="inlineStr">
         <is>
@@ -32501,30 +32501,30 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C698" t="n">
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F698" t="n">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -32547,37 +32547,37 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C699" t="n">
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F699" t="n">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>1</v>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K699" t="n">
@@ -32593,14 +32593,14 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C700" t="n">
         <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -32608,15 +32608,15 @@
         </is>
       </c>
       <c r="F700" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -32639,14 +32639,14 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C701" t="n">
         <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -32654,22 +32654,22 @@
         </is>
       </c>
       <c r="F701" t="n">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H701" t="n">
         <v>1</v>
       </c>
       <c r="I701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K701" t="n">
@@ -32685,37 +32685,37 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C702" t="n">
         <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F702" t="n">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I702" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K702" t="n">
@@ -32731,37 +32731,37 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C703" t="n">
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F703" t="n">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K703" t="n">
@@ -32777,37 +32777,37 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C704" t="n">
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F704" t="n">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K704" t="n">
@@ -32823,37 +32823,37 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C705" t="n">
         <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F705" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H705" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K705" t="n">
@@ -32869,37 +32869,37 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C706" t="n">
         <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F706" t="n">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K706" t="n">
@@ -32915,33 +32915,33 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C707" t="n">
         <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F707" t="n">
-        <v>1771</v>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J707" t="inlineStr">
         <is>
@@ -32961,33 +32961,33 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C708" t="n">
         <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F708" t="n">
-        <v>1772</v>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J708" t="inlineStr">
         <is>
@@ -33007,37 +33007,37 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C709" t="n">
         <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F709" t="n">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K709" t="n">
@@ -33053,37 +33053,37 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C710" t="n">
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F710" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K710" t="n">
@@ -33099,37 +33099,37 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C711" t="n">
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>1766</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F711" t="n">
-        <v>1775</v>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K711" t="n">
@@ -33145,37 +33145,37 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>0</v>
       </c>
       <c r="D712" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F712" t="n">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K712" t="n">
@@ -33191,33 +33191,33 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C713" t="n">
         <v>0</v>
       </c>
       <c r="D713" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F713" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J713" t="inlineStr">
         <is>
@@ -33237,37 +33237,37 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C714" t="n">
         <v>0</v>
       </c>
       <c r="D714" t="n">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F714" t="n">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K714" t="n">
@@ -33283,37 +33283,37 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C715" t="n">
         <v>0</v>
       </c>
       <c r="D715" t="n">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F715" t="n">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K715" t="n">
@@ -33329,37 +33329,37 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C716" t="n">
         <v>0</v>
       </c>
       <c r="D716" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F716" t="n">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K716" t="n">
@@ -33375,37 +33375,37 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C717" t="n">
         <v>0</v>
       </c>
       <c r="D717" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F717" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K717" t="n">
@@ -33421,33 +33421,33 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C718" t="n">
         <v>0</v>
       </c>
       <c r="D718" t="n">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F718" t="n">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J718" t="inlineStr">
         <is>
@@ -33467,37 +33467,37 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C719" t="n">
         <v>0</v>
       </c>
       <c r="D719" t="n">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F719" t="n">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K719" t="n">
@@ -33513,33 +33513,33 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C720" t="n">
         <v>0</v>
       </c>
       <c r="D720" t="n">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F720" t="n">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J720" t="inlineStr">
         <is>
@@ -33559,37 +33559,37 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C721" t="n">
         <v>0</v>
       </c>
       <c r="D721" t="n">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F721" t="n">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H721" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>1</v>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K721" t="n">
@@ -33605,37 +33605,37 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C722" t="n">
         <v>0</v>
       </c>
       <c r="D722" t="n">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F722" t="n">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H722" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I722" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K722" t="n">
@@ -33651,43 +33651,457 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
+          <t>2025-04-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+      <c r="D723" t="n">
+        <v>778</v>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="F723" t="n">
+        <v>1778</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H723" t="n">
+        <v>2</v>
+      </c>
+      <c r="I723" t="n">
+        <v>2</v>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>540517</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2025-04-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>0</v>
+      </c>
+      <c r="D724" t="n">
+        <v>779</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F724" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H724" t="n">
+        <v>3</v>
+      </c>
+      <c r="I724" t="n">
+        <v>1</v>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>540518</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>0</v>
+      </c>
+      <c r="D725" t="n">
+        <v>780</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F725" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="H725" t="n">
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>2</v>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>540519</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>0</v>
+      </c>
+      <c r="D726" t="n">
+        <v>781</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F726" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H726" t="n">
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0</v>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>540520</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>0</v>
+      </c>
+      <c r="D727" t="n">
+        <v>782</v>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F727" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="n">
+        <v>4</v>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>540521</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>0</v>
+      </c>
+      <c r="D728" t="n">
+        <v>783</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F728" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H728" t="n">
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>1</v>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>540522</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>0</v>
+      </c>
+      <c r="D729" t="n">
+        <v>784</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F729" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H729" t="n">
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>2</v>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>540523</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0</v>
+      </c>
+      <c r="D730" t="n">
+        <v>785</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F730" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H730" t="n">
+        <v>6</v>
+      </c>
+      <c r="I730" t="n">
+        <v>1</v>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>540524</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C723" t="n">
-        <v>0</v>
-      </c>
-      <c r="D723" t="n">
+      <c r="C731" t="n">
+        <v>0</v>
+      </c>
+      <c r="D731" t="n">
+        <v>786</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F731" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H731" t="n">
+        <v>4</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0</v>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>540525</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+      <c r="D732" t="n">
         <v>787</v>
       </c>
-      <c r="E723" t="inlineStr">
+      <c r="E732" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F723" t="n">
+      <c r="F732" t="n">
         <v>1787</v>
       </c>
-      <c r="G723" t="inlineStr">
+      <c r="G732" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H723" t="n">
-        <v>3</v>
-      </c>
-      <c r="I723" t="n">
-        <v>2</v>
-      </c>
-      <c r="J723" t="inlineStr">
+      <c r="H732" t="n">
+        <v>3</v>
+      </c>
+      <c r="I732" t="n">
+        <v>2</v>
+      </c>
+      <c r="J732" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K723" t="n">
-        <v>0</v>
-      </c>
-      <c r="L723" t="n">
+      <c r="K732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L732" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L732"/>
+  <dimension ref="A1:L741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31071,183 +31071,183 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>540460</v>
+        <v>540465</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-10-17T18:30:00Z</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D667" t="n">
-        <v>722</v>
+        <v>28</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="F667" t="n">
-        <v>1722</v>
+        <v>18</v>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K667" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L667" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>540461</v>
+        <v>540462</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-10-18T13:30:00Z</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D668" t="n">
-        <v>723</v>
+        <v>15</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="F668" t="n">
-        <v>1723</v>
+        <v>3</v>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I668" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K668" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L668" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>540462</v>
+        <v>540463</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-10-18T13:30:00Z</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D669" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>7</v>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F669" t="n">
-        <v>1724</v>
-      </c>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I669" t="n">
         <v>1</v>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K669" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>540463</v>
+        <v>540464</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-10-18T13:30:00Z</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D670" t="n">
-        <v>725</v>
+        <v>11</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="F670" t="n">
-        <v>1725</v>
+        <v>10</v>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L670" t="n">
         <v>0</v>
@@ -31255,45 +31255,45 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>540464</v>
+        <v>540467</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-10-18T13:30:00Z</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D671" t="n">
-        <v>726</v>
+        <v>44</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="F671" t="n">
-        <v>1726</v>
+        <v>12</v>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="H671" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K671" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L671" t="n">
         <v>0</v>
@@ -31301,186 +31301,186 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>540465</v>
+        <v>540468</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-10-18T13:30:00Z</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D672" t="n">
-        <v>727</v>
+        <v>1</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>1727</v>
+        <v>16</v>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="H672" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L672" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>540466</v>
+        <v>540460</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2025-10-18T16:30:00Z</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D673" t="n">
-        <v>728</v>
+        <v>5</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="F673" t="n">
-        <v>1728</v>
+        <v>4</v>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I673" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K673" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L673" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>540467</v>
+        <v>540461</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2025-10-19T13:30:00Z</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D674" t="n">
-        <v>729</v>
+        <v>17</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="F674" t="n">
-        <v>1729</v>
+        <v>19</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I674" t="n">
         <v>2</v>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K674" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L674" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>540468</v>
+        <v>540466</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2025-10-19T15:30:00Z</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D675" t="n">
-        <v>730</v>
+        <v>20</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="F675" t="n">
-        <v>1730</v>
+        <v>2</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="H675" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I675" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K675" t="n">
         <v>0</v>
       </c>
       <c r="L675" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="676">
@@ -31489,37 +31489,37 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F676" t="n">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>2</v>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K676" t="n">
@@ -31535,26 +31535,26 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
         <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H677" t="n">
@@ -31569,7 +31569,7 @@
         </is>
       </c>
       <c r="K677" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L677" t="n">
         <v>0</v>
@@ -31581,14 +31581,14 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>0</v>
       </c>
       <c r="D678" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -31596,18 +31596,18 @@
         </is>
       </c>
       <c r="F678" t="n">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
@@ -31627,37 +31627,37 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F679" t="n">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H679" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K679" t="n">
@@ -31673,14 +31673,14 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -31688,15 +31688,15 @@
         </is>
       </c>
       <c r="F680" t="n">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -31707,7 +31707,7 @@
         </is>
       </c>
       <c r="K680" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L680" t="n">
         <v>0</v>
@@ -31719,37 +31719,37 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F681" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I681" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K681" t="n">
@@ -31765,22 +31765,22 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
         <v>0</v>
       </c>
       <c r="D682" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
@@ -31788,14 +31788,14 @@
         </is>
       </c>
       <c r="H682" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K682" t="n">
@@ -31811,22 +31811,22 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
         <v>0</v>
       </c>
       <c r="D683" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F683" t="n">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
@@ -31834,14 +31834,14 @@
         </is>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K683" t="n">
@@ -31857,37 +31857,37 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F684" t="n">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K684" t="n">
@@ -31903,37 +31903,37 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I685" t="n">
         <v>2</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -31949,37 +31949,37 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K686" t="n">
@@ -31995,14 +31995,14 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -32010,18 +32010,18 @@
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
@@ -32041,37 +32041,37 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I688" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K688" t="n">
@@ -32087,14 +32087,14 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -32102,15 +32102,15 @@
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -32133,33 +32133,33 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H690" t="n">
         <v>0</v>
       </c>
       <c r="I690" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
@@ -32179,37 +32179,37 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K691" t="n">
@@ -32225,37 +32225,37 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K692" t="n">
@@ -32271,33 +32271,33 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H693" t="n">
         <v>1</v>
       </c>
       <c r="I693" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
@@ -32317,37 +32317,37 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>1740</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F694" t="n">
-        <v>1749</v>
-      </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I694" t="n">
         <v>2</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K694" t="n">
@@ -32363,22 +32363,22 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
@@ -32409,26 +32409,26 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F696" t="n">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H696" t="n">
@@ -32455,26 +32455,26 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C697" t="n">
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F697" t="n">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H697" t="n">
@@ -32501,22 +32501,22 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C698" t="n">
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F698" t="n">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="H698" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -32547,22 +32547,22 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C699" t="n">
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F699" t="n">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
@@ -32593,14 +32593,14 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C700" t="n">
         <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -32608,22 +32608,22 @@
         </is>
       </c>
       <c r="F700" t="n">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K700" t="n">
@@ -32639,14 +32639,14 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C701" t="n">
         <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -32654,22 +32654,22 @@
         </is>
       </c>
       <c r="F701" t="n">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K701" t="n">
@@ -32685,22 +32685,22 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C702" t="n">
         <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F702" t="n">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
@@ -32708,7 +32708,7 @@
         </is>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>3</v>
@@ -32731,37 +32731,37 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C703" t="n">
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F703" t="n">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I703" t="n">
         <v>2</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K703" t="n">
@@ -32777,37 +32777,37 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C704" t="n">
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F704" t="n">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K704" t="n">
@@ -32823,22 +32823,22 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C705" t="n">
         <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F705" t="n">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="G705" t="inlineStr">
         <is>
@@ -32849,11 +32849,11 @@
         <v>1</v>
       </c>
       <c r="I705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K705" t="n">
@@ -32869,14 +32869,14 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C706" t="n">
         <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -32884,18 +32884,18 @@
         </is>
       </c>
       <c r="F706" t="n">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J706" t="inlineStr">
         <is>
@@ -32915,30 +32915,30 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C707" t="n">
         <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F707" t="n">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -32961,37 +32961,37 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C708" t="n">
         <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F708" t="n">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>1</v>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K708" t="n">
@@ -33007,14 +33007,14 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C709" t="n">
         <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -33022,15 +33022,15 @@
         </is>
       </c>
       <c r="F709" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -33053,14 +33053,14 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C710" t="n">
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -33068,22 +33068,22 @@
         </is>
       </c>
       <c r="F710" t="n">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H710" t="n">
         <v>1</v>
       </c>
       <c r="I710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K710" t="n">
@@ -33099,37 +33099,37 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C711" t="n">
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F711" t="n">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I711" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K711" t="n">
@@ -33145,37 +33145,37 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>0</v>
       </c>
       <c r="D712" t="n">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F712" t="n">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K712" t="n">
@@ -33191,37 +33191,37 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C713" t="n">
         <v>0</v>
       </c>
       <c r="D713" t="n">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F713" t="n">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K713" t="n">
@@ -33237,37 +33237,37 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C714" t="n">
         <v>0</v>
       </c>
       <c r="D714" t="n">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="F714" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F714" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H714" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K714" t="n">
@@ -33283,37 +33283,37 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C715" t="n">
         <v>0</v>
       </c>
       <c r="D715" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F715" t="n">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K715" t="n">
@@ -33329,33 +33329,33 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C716" t="n">
         <v>0</v>
       </c>
       <c r="D716" t="n">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F716" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F716" t="n">
-        <v>1771</v>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J716" t="inlineStr">
         <is>
@@ -33375,33 +33375,33 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C717" t="n">
         <v>0</v>
       </c>
       <c r="D717" t="n">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F717" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F717" t="n">
-        <v>1772</v>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J717" t="inlineStr">
         <is>
@@ -33421,37 +33421,37 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C718" t="n">
         <v>0</v>
       </c>
       <c r="D718" t="n">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F718" t="n">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K718" t="n">
@@ -33467,37 +33467,37 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C719" t="n">
         <v>0</v>
       </c>
       <c r="D719" t="n">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F719" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K719" t="n">
@@ -33513,37 +33513,37 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C720" t="n">
         <v>0</v>
       </c>
       <c r="D720" t="n">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="F720" t="n">
+        <v>1766</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F720" t="n">
-        <v>1775</v>
-      </c>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K720" t="n">
@@ -33559,37 +33559,37 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C721" t="n">
         <v>0</v>
       </c>
       <c r="D721" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F721" t="n">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K721" t="n">
@@ -33605,33 +33605,33 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C722" t="n">
         <v>0</v>
       </c>
       <c r="D722" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F722" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J722" t="inlineStr">
         <is>
@@ -33651,37 +33651,37 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C723" t="n">
         <v>0</v>
       </c>
       <c r="D723" t="n">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F723" t="n">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K723" t="n">
@@ -33697,37 +33697,37 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C724" t="n">
         <v>0</v>
       </c>
       <c r="D724" t="n">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F724" t="n">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K724" t="n">
@@ -33743,37 +33743,37 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C725" t="n">
         <v>0</v>
       </c>
       <c r="D725" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F725" t="n">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K725" t="n">
@@ -33789,37 +33789,37 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C726" t="n">
         <v>0</v>
       </c>
       <c r="D726" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F726" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K726" t="n">
@@ -33835,33 +33835,33 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C727" t="n">
         <v>0</v>
       </c>
       <c r="D727" t="n">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F727" t="n">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J727" t="inlineStr">
         <is>
@@ -33881,37 +33881,37 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C728" t="n">
         <v>0</v>
       </c>
       <c r="D728" t="n">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F728" t="n">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K728" t="n">
@@ -33927,33 +33927,33 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C729" t="n">
         <v>0</v>
       </c>
       <c r="D729" t="n">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F729" t="n">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J729" t="inlineStr">
         <is>
@@ -33973,37 +33973,37 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C730" t="n">
         <v>0</v>
       </c>
       <c r="D730" t="n">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F730" t="n">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H730" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>1</v>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K730" t="n">
@@ -34019,37 +34019,37 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C731" t="n">
         <v>0</v>
       </c>
       <c r="D731" t="n">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F731" t="n">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H731" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I731" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K731" t="n">
@@ -34065,43 +34065,457 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
+          <t>2025-04-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+      <c r="D732" t="n">
+        <v>778</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="F732" t="n">
+        <v>1778</v>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H732" t="n">
+        <v>2</v>
+      </c>
+      <c r="I732" t="n">
+        <v>2</v>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>540526</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2025-04-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>0</v>
+      </c>
+      <c r="D733" t="n">
+        <v>779</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F733" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H733" t="n">
+        <v>3</v>
+      </c>
+      <c r="I733" t="n">
+        <v>1</v>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>540527</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>0</v>
+      </c>
+      <c r="D734" t="n">
+        <v>780</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F734" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="H734" t="n">
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>2</v>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>540528</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0</v>
+      </c>
+      <c r="D735" t="n">
+        <v>781</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F735" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H735" t="n">
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0</v>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>540529</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>0</v>
+      </c>
+      <c r="D736" t="n">
+        <v>782</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F736" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="n">
+        <v>4</v>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>540530</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>0</v>
+      </c>
+      <c r="D737" t="n">
+        <v>783</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F737" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H737" t="n">
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>1</v>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>540531</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>0</v>
+      </c>
+      <c r="D738" t="n">
+        <v>784</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F738" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H738" t="n">
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>2</v>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>540532</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0</v>
+      </c>
+      <c r="D739" t="n">
+        <v>785</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F739" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H739" t="n">
+        <v>6</v>
+      </c>
+      <c r="I739" t="n">
+        <v>1</v>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>540533</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C732" t="n">
-        <v>0</v>
-      </c>
-      <c r="D732" t="n">
+      <c r="C740" t="n">
+        <v>0</v>
+      </c>
+      <c r="D740" t="n">
+        <v>786</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F740" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H740" t="n">
+        <v>4</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0</v>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>540534</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+      <c r="D741" t="n">
         <v>787</v>
       </c>
-      <c r="E732" t="inlineStr">
+      <c r="E741" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F732" t="n">
+      <c r="F741" t="n">
         <v>1787</v>
       </c>
-      <c r="G732" t="inlineStr">
+      <c r="G741" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H732" t="n">
-        <v>3</v>
-      </c>
-      <c r="I732" t="n">
-        <v>2</v>
-      </c>
-      <c r="J732" t="inlineStr">
+      <c r="H741" t="n">
+        <v>3</v>
+      </c>
+      <c r="I741" t="n">
+        <v>2</v>
+      </c>
+      <c r="J741" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K732" t="n">
-        <v>0</v>
-      </c>
-      <c r="L732" t="n">
+      <c r="K741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L741" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L741"/>
+  <dimension ref="A1:L750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31485,48 +31485,48 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>540469</v>
+        <v>540472</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-10-24T18:30:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D676" t="n">
-        <v>722</v>
+        <v>12</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="F676" t="n">
-        <v>1722</v>
+        <v>28</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="H676" t="n">
         <v>1</v>
       </c>
       <c r="I676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K676" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L676" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -31535,41 +31535,41 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-10-25T13:30:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D677" t="n">
-        <v>723</v>
+        <v>19</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1723</v>
+        <v>20</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="H677" t="n">
         <v>2</v>
       </c>
       <c r="I677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K677" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L677" t="n">
         <v>0</v>
@@ -31577,91 +31577,91 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>540471</v>
+        <v>540475</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-10-25T13:30:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D678" t="n">
-        <v>724</v>
+        <v>16</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="F678" t="n">
-        <v>1724</v>
+        <v>721</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K678" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>540472</v>
+        <v>540476</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-10-25T13:30:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D679" t="n">
-        <v>725</v>
+        <v>2</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="F679" t="n">
-        <v>1725</v>
+        <v>44</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K679" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L679" t="n">
         <v>0</v>
@@ -31669,48 +31669,48 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>540473</v>
+        <v>540477</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-10-25T13:30:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D680" t="n">
-        <v>726</v>
+        <v>7</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F680" t="n">
-        <v>1726</v>
+        <v>11</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="H680" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K680" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -31719,68 +31719,68 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-10-25T13:45:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D681" t="n">
-        <v>727</v>
+        <v>18</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="F681" t="n">
-        <v>1727</v>
+        <v>5</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="H681" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>540475</v>
+        <v>540471</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2025-10-25T16:30:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D682" t="n">
-        <v>728</v>
+        <v>4</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1728</v>
+        <v>1</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
@@ -31791,110 +31791,110 @@
         <v>1</v>
       </c>
       <c r="I682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L682" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>540476</v>
+        <v>540469</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2025-10-26T14:30:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D683" t="n">
-        <v>729</v>
+        <v>3</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="F683" t="n">
-        <v>1729</v>
+        <v>17</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L683" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>540477</v>
+        <v>540473</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2025-10-26T16:30:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D684" t="n">
-        <v>730</v>
+        <v>10</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="F684" t="n">
-        <v>1730</v>
+        <v>15</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="H684" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K684" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L684" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="685">
@@ -31903,37 +31903,37 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>2</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -31949,26 +31949,26 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H686" t="n">
@@ -31983,7 +31983,7 @@
         </is>
       </c>
       <c r="K686" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L686" t="n">
         <v>0</v>
@@ -31995,14 +31995,14 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -32010,18 +32010,18 @@
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
@@ -32041,37 +32041,37 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H688" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K688" t="n">
@@ -32087,14 +32087,14 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -32102,15 +32102,15 @@
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -32121,7 +32121,7 @@
         </is>
       </c>
       <c r="K689" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L689" t="n">
         <v>0</v>
@@ -32133,37 +32133,37 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I690" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K690" t="n">
@@ -32179,22 +32179,22 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
@@ -32202,14 +32202,14 @@
         </is>
       </c>
       <c r="H691" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K691" t="n">
@@ -32225,22 +32225,22 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
@@ -32248,14 +32248,14 @@
         </is>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K692" t="n">
@@ -32271,37 +32271,37 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K693" t="n">
@@ -32317,37 +32317,37 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H694" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I694" t="n">
         <v>2</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K694" t="n">
@@ -32363,37 +32363,37 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K695" t="n">
@@ -32409,14 +32409,14 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -32424,18 +32424,18 @@
         </is>
       </c>
       <c r="F696" t="n">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J696" t="inlineStr">
         <is>
@@ -32455,37 +32455,37 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C697" t="n">
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F697" t="n">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I697" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K697" t="n">
@@ -32501,14 +32501,14 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C698" t="n">
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -32516,15 +32516,15 @@
         </is>
       </c>
       <c r="F698" t="n">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -32547,33 +32547,33 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C699" t="n">
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F699" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H699" t="n">
         <v>0</v>
       </c>
       <c r="I699" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J699" t="inlineStr">
         <is>
@@ -32593,37 +32593,37 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C700" t="n">
         <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F700" t="n">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K700" t="n">
@@ -32639,37 +32639,37 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C701" t="n">
         <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F701" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K701" t="n">
@@ -32685,33 +32685,33 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C702" t="n">
         <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F702" t="n">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H702" t="n">
         <v>1</v>
       </c>
       <c r="I702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J702" t="inlineStr">
         <is>
@@ -32731,37 +32731,37 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C703" t="n">
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>1740</v>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F703" t="n">
-        <v>1749</v>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I703" t="n">
         <v>2</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K703" t="n">
@@ -32777,22 +32777,22 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C704" t="n">
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F704" t="n">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
@@ -32823,26 +32823,26 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C705" t="n">
         <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F705" t="n">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H705" t="n">
@@ -32869,26 +32869,26 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C706" t="n">
         <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F706" t="n">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H706" t="n">
@@ -32915,22 +32915,22 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C707" t="n">
         <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F707" t="n">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         </is>
       </c>
       <c r="H707" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -32961,22 +32961,22 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C708" t="n">
         <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F708" t="n">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
@@ -33007,14 +33007,14 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C709" t="n">
         <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -33022,22 +33022,22 @@
         </is>
       </c>
       <c r="F709" t="n">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K709" t="n">
@@ -33053,14 +33053,14 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C710" t="n">
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -33068,22 +33068,22 @@
         </is>
       </c>
       <c r="F710" t="n">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K710" t="n">
@@ -33099,22 +33099,22 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C711" t="n">
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F711" t="n">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         </is>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>3</v>
@@ -33145,37 +33145,37 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>0</v>
       </c>
       <c r="D712" t="n">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F712" t="n">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I712" t="n">
         <v>2</v>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K712" t="n">
@@ -33191,37 +33191,37 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C713" t="n">
         <v>0</v>
       </c>
       <c r="D713" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F713" t="n">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K713" t="n">
@@ -33237,22 +33237,22 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C714" t="n">
         <v>0</v>
       </c>
       <c r="D714" t="n">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F714" t="n">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="G714" t="inlineStr">
         <is>
@@ -33263,11 +33263,11 @@
         <v>1</v>
       </c>
       <c r="I714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K714" t="n">
@@ -33283,14 +33283,14 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C715" t="n">
         <v>0</v>
       </c>
       <c r="D715" t="n">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -33298,18 +33298,18 @@
         </is>
       </c>
       <c r="F715" t="n">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J715" t="inlineStr">
         <is>
@@ -33329,30 +33329,30 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C716" t="n">
         <v>0</v>
       </c>
       <c r="D716" t="n">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F716" t="n">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
@@ -33375,37 +33375,37 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C717" t="n">
         <v>0</v>
       </c>
       <c r="D717" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F717" t="n">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>1</v>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K717" t="n">
@@ -33421,14 +33421,14 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C718" t="n">
         <v>0</v>
       </c>
       <c r="D718" t="n">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -33436,15 +33436,15 @@
         </is>
       </c>
       <c r="F718" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -33467,14 +33467,14 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C719" t="n">
         <v>0</v>
       </c>
       <c r="D719" t="n">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -33482,22 +33482,22 @@
         </is>
       </c>
       <c r="F719" t="n">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H719" t="n">
         <v>1</v>
       </c>
       <c r="I719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K719" t="n">
@@ -33513,37 +33513,37 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C720" t="n">
         <v>0</v>
       </c>
       <c r="D720" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F720" t="n">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K720" t="n">
@@ -33559,37 +33559,37 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C721" t="n">
         <v>0</v>
       </c>
       <c r="D721" t="n">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F721" t="n">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K721" t="n">
@@ -33605,37 +33605,37 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C722" t="n">
         <v>0</v>
       </c>
       <c r="D722" t="n">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F722" t="n">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K722" t="n">
@@ -33651,37 +33651,37 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C723" t="n">
         <v>0</v>
       </c>
       <c r="D723" t="n">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="F723" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F723" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H723" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K723" t="n">
@@ -33697,37 +33697,37 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C724" t="n">
         <v>0</v>
       </c>
       <c r="D724" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F724" t="n">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K724" t="n">
@@ -33743,33 +33743,33 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C725" t="n">
         <v>0</v>
       </c>
       <c r="D725" t="n">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F725" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F725" t="n">
-        <v>1771</v>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J725" t="inlineStr">
         <is>
@@ -33789,33 +33789,33 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C726" t="n">
         <v>0</v>
       </c>
       <c r="D726" t="n">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F726" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F726" t="n">
-        <v>1772</v>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J726" t="inlineStr">
         <is>
@@ -33835,37 +33835,37 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C727" t="n">
         <v>0</v>
       </c>
       <c r="D727" t="n">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F727" t="n">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K727" t="n">
@@ -33881,37 +33881,37 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C728" t="n">
         <v>0</v>
       </c>
       <c r="D728" t="n">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F728" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K728" t="n">
@@ -33927,37 +33927,37 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C729" t="n">
         <v>0</v>
       </c>
       <c r="D729" t="n">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="F729" t="n">
+        <v>1766</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F729" t="n">
-        <v>1775</v>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K729" t="n">
@@ -33973,37 +33973,37 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C730" t="n">
         <v>0</v>
       </c>
       <c r="D730" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F730" t="n">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K730" t="n">
@@ -34019,33 +34019,33 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C731" t="n">
         <v>0</v>
       </c>
       <c r="D731" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F731" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J731" t="inlineStr">
         <is>
@@ -34065,37 +34065,37 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C732" t="n">
         <v>0</v>
       </c>
       <c r="D732" t="n">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F732" t="n">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K732" t="n">
@@ -34111,37 +34111,37 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C733" t="n">
         <v>0</v>
       </c>
       <c r="D733" t="n">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F733" t="n">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K733" t="n">
@@ -34157,37 +34157,37 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C734" t="n">
         <v>0</v>
       </c>
       <c r="D734" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F734" t="n">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K734" t="n">
@@ -34203,37 +34203,37 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C735" t="n">
         <v>0</v>
       </c>
       <c r="D735" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F735" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K735" t="n">
@@ -34249,33 +34249,33 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C736" t="n">
         <v>0</v>
       </c>
       <c r="D736" t="n">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F736" t="n">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J736" t="inlineStr">
         <is>
@@ -34295,37 +34295,37 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C737" t="n">
         <v>0</v>
       </c>
       <c r="D737" t="n">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F737" t="n">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K737" t="n">
@@ -34341,33 +34341,33 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C738" t="n">
         <v>0</v>
       </c>
       <c r="D738" t="n">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F738" t="n">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J738" t="inlineStr">
         <is>
@@ -34387,37 +34387,37 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C739" t="n">
         <v>0</v>
       </c>
       <c r="D739" t="n">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F739" t="n">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H739" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I739" t="n">
         <v>1</v>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K739" t="n">
@@ -34433,37 +34433,37 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C740" t="n">
         <v>0</v>
       </c>
       <c r="D740" t="n">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F740" t="n">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H740" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I740" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K740" t="n">
@@ -34479,43 +34479,457 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
+          <t>2025-04-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+      <c r="D741" t="n">
+        <v>778</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="F741" t="n">
+        <v>1778</v>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H741" t="n">
+        <v>2</v>
+      </c>
+      <c r="I741" t="n">
+        <v>2</v>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>540535</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2025-04-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>0</v>
+      </c>
+      <c r="D742" t="n">
+        <v>779</v>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F742" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H742" t="n">
+        <v>3</v>
+      </c>
+      <c r="I742" t="n">
+        <v>1</v>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>540536</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>0</v>
+      </c>
+      <c r="D743" t="n">
+        <v>780</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F743" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="H743" t="n">
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>2</v>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>540537</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>0</v>
+      </c>
+      <c r="D744" t="n">
+        <v>781</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F744" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H744" t="n">
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0</v>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>540538</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>0</v>
+      </c>
+      <c r="D745" t="n">
+        <v>782</v>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F745" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="n">
+        <v>4</v>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>540539</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>0</v>
+      </c>
+      <c r="D746" t="n">
+        <v>783</v>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F746" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H746" t="n">
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>1</v>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>540540</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>0</v>
+      </c>
+      <c r="D747" t="n">
+        <v>784</v>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F747" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H747" t="n">
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>2</v>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>540541</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>0</v>
+      </c>
+      <c r="D748" t="n">
+        <v>785</v>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F748" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H748" t="n">
+        <v>6</v>
+      </c>
+      <c r="I748" t="n">
+        <v>1</v>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>540542</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C741" t="n">
-        <v>0</v>
-      </c>
-      <c r="D741" t="n">
+      <c r="C749" t="n">
+        <v>0</v>
+      </c>
+      <c r="D749" t="n">
+        <v>786</v>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F749" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H749" t="n">
+        <v>4</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0</v>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>540543</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0</v>
+      </c>
+      <c r="D750" t="n">
         <v>787</v>
       </c>
-      <c r="E741" t="inlineStr">
+      <c r="E750" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F741" t="n">
+      <c r="F750" t="n">
         <v>1787</v>
       </c>
-      <c r="G741" t="inlineStr">
+      <c r="G750" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H741" t="n">
-        <v>3</v>
-      </c>
-      <c r="I741" t="n">
-        <v>2</v>
-      </c>
-      <c r="J741" t="inlineStr">
+      <c r="H750" t="n">
+        <v>3</v>
+      </c>
+      <c r="I750" t="n">
+        <v>2</v>
+      </c>
+      <c r="J750" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K741" t="n">
-        <v>0</v>
-      </c>
-      <c r="L741" t="n">
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/bundesliga_matches_2023_2025_final_fe.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L750"/>
+  <dimension ref="A1:L768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31899,48 +31899,48 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>540478</v>
+        <v>540482</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D685" t="n">
-        <v>722</v>
+        <v>16</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1722</v>
+        <v>4</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K685" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -31949,44 +31949,44 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-11-01T14:30:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D686" t="n">
-        <v>723</v>
+        <v>15</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1723</v>
+        <v>12</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K686" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -31995,87 +31995,87 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-11-01T14:30:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D687" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1724</v>
+        <v>10</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I687" t="n">
         <v>1</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K687" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L687" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>540481</v>
+        <v>540483</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-11-01T14:30:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D688" t="n">
-        <v>725</v>
+        <v>28</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1725</v>
+        <v>17</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K688" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L688" t="n">
         <v>0</v>
@@ -32083,45 +32083,45 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>540482</v>
+        <v>540484</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-11-01T14:30:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D689" t="n">
-        <v>726</v>
+        <v>20</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1726</v>
+        <v>18</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>0</v>
@@ -32129,45 +32129,45 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>540483</v>
+        <v>540485</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-11-01T14:30:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D690" t="n">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1727</v>
+        <v>19</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H690" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>1</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K690" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L690" t="n">
         <v>0</v>
@@ -32175,64 +32175,64 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>540484</v>
+        <v>540478</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2025-11-01T17:30:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D691" t="n">
-        <v>728</v>
+        <v>5</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1728</v>
+        <v>3</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K691" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L691" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>540485</v>
+        <v>540486</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2025-11-02T14:30:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D692" t="n">
-        <v>729</v>
+        <v>1</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -32240,164 +32240,164 @@
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1729</v>
+        <v>7</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K692" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>540486</v>
+        <v>540481</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2025-11-02T16:30:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D693" t="n">
-        <v>730</v>
+        <v>11</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1730</v>
+        <v>2</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="H693" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I693" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K693" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L693" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>540487</v>
+        <v>540490</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2025-11-07T19:30:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D694" t="n">
-        <v>731</v>
+        <v>12</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1731</v>
+        <v>11</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="H694" t="n">
         <v>2</v>
       </c>
       <c r="I694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K694" t="n">
         <v>0</v>
       </c>
       <c r="L694" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>540488</v>
+        <v>540487</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2025-11-08T14:30:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D695" t="n">
-        <v>732</v>
+        <v>3</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1732</v>
+        <v>44</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L695" t="n">
         <v>0</v>
@@ -32405,30 +32405,30 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>540489</v>
+        <v>540493</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2025-11-08T14:30:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D696" t="n">
-        <v>733</v>
+        <v>28</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="F696" t="n">
-        <v>1733</v>
+        <v>5</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="H696" t="n">
@@ -32439,11 +32439,11 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K696" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L696" t="n">
         <v>0</v>
@@ -32451,91 +32451,91 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>540490</v>
+        <v>540494</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2025-11-08T14:30:00Z</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D697" t="n">
-        <v>734</v>
+        <v>2</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="F697" t="n">
-        <v>1734</v>
+        <v>721</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I697" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K697" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L697" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>540491</v>
+        <v>540495</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2025-11-08T14:30:00Z</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D698" t="n">
-        <v>735</v>
+        <v>7</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F698" t="n">
-        <v>1735</v>
+        <v>4</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K698" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L698" t="n">
         <v>0</v>
@@ -32547,83 +32547,83 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2025-11-08T17:30:00Z</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D699" t="n">
-        <v>736</v>
+        <v>18</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="F699" t="n">
-        <v>1736</v>
+        <v>1</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I699" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K699" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L699" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>540493</v>
+        <v>540489</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2025-11-09T14:30:00Z</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D700" t="n">
-        <v>737</v>
+        <v>17</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="F700" t="n">
-        <v>1737</v>
+        <v>20</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I700" t="n">
         <v>1</v>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K700" t="n">
@@ -32635,91 +32635,91 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>540494</v>
+        <v>540491</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2025-11-09T16:30:00Z</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D701" t="n">
-        <v>738</v>
+        <v>10</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="F701" t="n">
-        <v>1738</v>
+        <v>16</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="H701" t="n">
         <v>3</v>
       </c>
       <c r="I701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K701" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>540495</v>
+        <v>540488</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2025-11-09T18:30:00Z</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D702" t="n">
-        <v>739</v>
+        <v>19</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F702" t="n">
-        <v>1739</v>
+        <v>15</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="H702" t="n">
         <v>1</v>
       </c>
       <c r="I702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L702" t="n">
         <v>0</v>
@@ -32731,22 +32731,22 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C703" t="n">
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F703" t="n">
-        <v>1740</v>
+        <v>1722</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
@@ -32754,14 +32754,14 @@
         </is>
       </c>
       <c r="H703" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>2</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K703" t="n">
@@ -32777,22 +32777,22 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C704" t="n">
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F704" t="n">
-        <v>1741</v>
+        <v>1723</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
@@ -32800,18 +32800,18 @@
         </is>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K704" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L704" t="n">
         <v>0</v>
@@ -32823,14 +32823,14 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C705" t="n">
         <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -32838,11 +32838,11 @@
         </is>
       </c>
       <c r="F705" t="n">
-        <v>1742</v>
+        <v>1724</v>
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H705" t="n">
@@ -32869,22 +32869,22 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C706" t="n">
         <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F706" t="n">
-        <v>1743</v>
+        <v>1725</v>
       </c>
       <c r="G706" t="inlineStr">
         <is>
@@ -32892,10 +32892,10 @@
         </is>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J706" t="inlineStr">
         <is>
@@ -32915,14 +32915,14 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C707" t="n">
         <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -32930,15 +32930,15 @@
         </is>
       </c>
       <c r="F707" t="n">
-        <v>1744</v>
+        <v>1726</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="K707" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L707" t="n">
         <v>0</v>
@@ -32961,37 +32961,37 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C708" t="n">
         <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>1727</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
           <t>Preußen Münster</t>
         </is>
       </c>
-      <c r="F708" t="n">
-        <v>1745</v>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>1. FC Köln</t>
-        </is>
-      </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I708" t="n">
         <v>1</v>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K708" t="n">
@@ -33007,37 +33007,37 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C709" t="n">
         <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F709" t="n">
-        <v>1746</v>
+        <v>1728</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K709" t="n">
@@ -33053,14 +33053,14 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C710" t="n">
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -33068,22 +33068,22 @@
         </is>
       </c>
       <c r="F710" t="n">
-        <v>1747</v>
+        <v>1729</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>2</v>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K710" t="n">
@@ -33099,37 +33099,37 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C711" t="n">
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F711" t="n">
-        <v>1748</v>
+        <v>1730</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K711" t="n">
@@ -33145,26 +33145,26 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>0</v>
       </c>
       <c r="D712" t="n">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F712" t="n">
-        <v>1749</v>
+        <v>1731</v>
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H712" t="n">
@@ -33191,37 +33191,37 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C713" t="n">
         <v>0</v>
       </c>
       <c r="D713" t="n">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F713" t="n">
-        <v>1750</v>
+        <v>1732</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K713" t="n">
@@ -33237,33 +33237,33 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C714" t="n">
         <v>0</v>
       </c>
       <c r="D714" t="n">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F714" t="n">
-        <v>1751</v>
+        <v>1733</v>
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J714" t="inlineStr">
         <is>
@@ -33283,14 +33283,14 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C715" t="n">
         <v>0</v>
       </c>
       <c r="D715" t="n">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -33298,22 +33298,22 @@
         </is>
       </c>
       <c r="F715" t="n">
-        <v>1752</v>
+        <v>1734</v>
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I715" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K715" t="n">
@@ -33329,30 +33329,30 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C716" t="n">
         <v>0</v>
       </c>
       <c r="D716" t="n">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F716" t="n">
-        <v>1753</v>
+        <v>1735</v>
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H716" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
@@ -33375,33 +33375,33 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C717" t="n">
         <v>0</v>
       </c>
       <c r="D717" t="n">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F717" t="n">
-        <v>1754</v>
+        <v>1736</v>
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H717" t="n">
         <v>0</v>
       </c>
       <c r="I717" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J717" t="inlineStr">
         <is>
@@ -33421,22 +33421,22 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C718" t="n">
         <v>0</v>
       </c>
       <c r="D718" t="n">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F718" t="n">
-        <v>1755</v>
+        <v>1737</v>
       </c>
       <c r="G718" t="inlineStr">
         <is>
@@ -33444,10 +33444,10 @@
         </is>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J718" t="inlineStr">
         <is>
@@ -33467,33 +33467,33 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C719" t="n">
         <v>0</v>
       </c>
       <c r="D719" t="n">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F719" t="n">
-        <v>1756</v>
+        <v>1738</v>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J719" t="inlineStr">
         <is>
@@ -33513,33 +33513,33 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C720" t="n">
         <v>0</v>
       </c>
       <c r="D720" t="n">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F720" t="n">
-        <v>1757</v>
+        <v>1739</v>
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J720" t="inlineStr">
         <is>
@@ -33559,37 +33559,37 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C721" t="n">
         <v>0</v>
       </c>
       <c r="D721" t="n">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F721" t="n">
-        <v>1758</v>
+        <v>1740</v>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I721" t="n">
         <v>2</v>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K721" t="n">
@@ -33605,37 +33605,37 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C722" t="n">
         <v>0</v>
       </c>
       <c r="D722" t="n">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F722" t="n">
-        <v>1759</v>
+        <v>1741</v>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K722" t="n">
@@ -33651,37 +33651,37 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C723" t="n">
         <v>0</v>
       </c>
       <c r="D723" t="n">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F723" t="n">
-        <v>1760</v>
+        <v>1742</v>
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H723" t="n">
         <v>1</v>
       </c>
       <c r="I723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K723" t="n">
@@ -33697,33 +33697,33 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C724" t="n">
         <v>0</v>
       </c>
       <c r="D724" t="n">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F724" t="n">
-        <v>1761</v>
+        <v>1743</v>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J724" t="inlineStr">
         <is>
@@ -33743,30 +33743,30 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C725" t="n">
         <v>0</v>
       </c>
       <c r="D725" t="n">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F725" t="n">
-        <v>1762</v>
+        <v>1744</v>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
@@ -33789,37 +33789,37 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C726" t="n">
         <v>0</v>
       </c>
       <c r="D726" t="n">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F726" t="n">
-        <v>1763</v>
+        <v>1745</v>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>1</v>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K726" t="n">
@@ -33835,14 +33835,14 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C727" t="n">
         <v>0</v>
       </c>
       <c r="D727" t="n">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -33850,22 +33850,22 @@
         </is>
       </c>
       <c r="F727" t="n">
-        <v>1764</v>
+        <v>1746</v>
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K727" t="n">
@@ -33881,14 +33881,14 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C728" t="n">
         <v>0</v>
       </c>
       <c r="D728" t="n">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -33896,18 +33896,18 @@
         </is>
       </c>
       <c r="F728" t="n">
-        <v>1765</v>
+        <v>1747</v>
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I728" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J728" t="inlineStr">
         <is>
@@ -33927,14 +33927,14 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C729" t="n">
         <v>0</v>
       </c>
       <c r="D729" t="n">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -33942,22 +33942,22 @@
         </is>
       </c>
       <c r="F729" t="n">
-        <v>1766</v>
+        <v>1748</v>
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H729" t="n">
         <v>1</v>
       </c>
       <c r="I729" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K729" t="n">
@@ -33973,37 +33973,37 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C730" t="n">
         <v>0</v>
       </c>
       <c r="D730" t="n">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F730" t="n">
-        <v>1767</v>
+        <v>1749</v>
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H730" t="n">
         <v>2</v>
       </c>
       <c r="I730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K730" t="n">
@@ -34019,22 +34019,22 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C731" t="n">
         <v>0</v>
       </c>
       <c r="D731" t="n">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F731" t="n">
-        <v>1768</v>
+        <v>1750</v>
       </c>
       <c r="G731" t="inlineStr">
         <is>
@@ -34065,37 +34065,37 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C732" t="n">
         <v>0</v>
       </c>
       <c r="D732" t="n">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="F732" t="n">
+        <v>1751</v>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F732" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H732" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>1</v>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K732" t="n">
@@ -34111,37 +34111,37 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C733" t="n">
         <v>0</v>
       </c>
       <c r="D733" t="n">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F733" t="n">
-        <v>1770</v>
+        <v>1752</v>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I733" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K733" t="n">
@@ -34157,33 +34157,33 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C734" t="n">
         <v>0</v>
       </c>
       <c r="D734" t="n">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F734" t="n">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J734" t="inlineStr">
         <is>
@@ -34203,37 +34203,37 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C735" t="n">
         <v>0</v>
       </c>
       <c r="D735" t="n">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F735" t="n">
-        <v>1772</v>
+        <v>1754</v>
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H735" t="n">
         <v>0</v>
       </c>
       <c r="I735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K735" t="n">
@@ -34249,22 +34249,22 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C736" t="n">
         <v>0</v>
       </c>
       <c r="D736" t="n">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F736" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="G736" t="inlineStr">
         <is>
@@ -34275,11 +34275,11 @@
         <v>1</v>
       </c>
       <c r="I736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K736" t="n">
@@ -34295,37 +34295,37 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C737" t="n">
         <v>0</v>
       </c>
       <c r="D737" t="n">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F737" t="n">
-        <v>1774</v>
+        <v>1756</v>
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K737" t="n">
@@ -34341,33 +34341,33 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C738" t="n">
         <v>0</v>
       </c>
       <c r="D738" t="n">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F738" t="n">
-        <v>1775</v>
+        <v>1757</v>
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J738" t="inlineStr">
         <is>
@@ -34387,22 +34387,22 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C739" t="n">
         <v>0</v>
       </c>
       <c r="D739" t="n">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F739" t="n">
-        <v>1776</v>
+        <v>1758</v>
       </c>
       <c r="G739" t="inlineStr">
         <is>
@@ -34413,11 +34413,11 @@
         <v>1</v>
       </c>
       <c r="I739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K739" t="n">
@@ -34433,14 +34433,14 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C740" t="n">
         <v>0</v>
       </c>
       <c r="D740" t="n">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -34448,22 +34448,22 @@
         </is>
       </c>
       <c r="F740" t="n">
-        <v>1777</v>
+        <v>1759</v>
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H740" t="n">
         <v>2</v>
       </c>
       <c r="I740" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K740" t="n">
@@ -34479,22 +34479,22 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C741" t="n">
         <v>0</v>
       </c>
       <c r="D741" t="n">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F741" t="n">
-        <v>1778</v>
+        <v>1760</v>
       </c>
       <c r="G741" t="inlineStr">
         <is>
@@ -34502,14 +34502,14 @@
         </is>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>2</v>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K741" t="n">
@@ -34525,14 +34525,14 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C742" t="n">
         <v>0</v>
       </c>
       <c r="D742" t="n">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -34540,18 +34540,18 @@
         </is>
       </c>
       <c r="F742" t="n">
-        <v>1779</v>
+        <v>1761</v>
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J742" t="inlineStr">
         <is>
@@ -34571,37 +34571,37 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C743" t="n">
         <v>0</v>
       </c>
       <c r="D743" t="n">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F743" t="n">
-        <v>1780</v>
+        <v>1762</v>
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K743" t="n">
@@ -34617,37 +34617,37 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C744" t="n">
         <v>0</v>
       </c>
       <c r="D744" t="n">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F744" t="n">
-        <v>1781</v>
+        <v>1763</v>
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H744" t="n">
         <v>1</v>
       </c>
       <c r="I744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K744" t="n">
@@ -34663,37 +34663,37 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C745" t="n">
         <v>0</v>
       </c>
       <c r="D745" t="n">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F745" t="n">
-        <v>1782</v>
+        <v>1764</v>
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I745" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K745" t="n">
@@ -34709,14 +34709,14 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C746" t="n">
         <v>0</v>
       </c>
       <c r="D746" t="n">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -34724,11 +34724,11 @@
         </is>
       </c>
       <c r="F746" t="n">
-        <v>1783</v>
+        <v>1765</v>
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H746" t="n">
@@ -34755,22 +34755,22 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C747" t="n">
         <v>0</v>
       </c>
       <c r="D747" t="n">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F747" t="n">
-        <v>1784</v>
+        <v>1766</v>
       </c>
       <c r="G747" t="inlineStr">
         <is>
@@ -34781,11 +34781,11 @@
         <v>1</v>
       </c>
       <c r="I747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K747" t="n">
@@ -34801,33 +34801,33 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C748" t="n">
         <v>0</v>
       </c>
       <c r="D748" t="n">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="F748" t="n">
+        <v>1767</v>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F748" t="n">
-        <v>1785</v>
-      </c>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>Ulm</t>
-        </is>
-      </c>
       <c r="H748" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J748" t="inlineStr">
         <is>
@@ -34847,37 +34847,37 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C749" t="n">
         <v>0</v>
       </c>
       <c r="D749" t="n">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="F749" t="n">
+        <v>1768</v>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F749" t="n">
-        <v>1786</v>
-      </c>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>Kaiserslautern</t>
-        </is>
-      </c>
       <c r="H749" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K749" t="n">
@@ -34893,43 +34893,871 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
+          <t>2025-03-08T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0</v>
+      </c>
+      <c r="D750" t="n">
+        <v>769</v>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F750" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>Fortuna Dusseldorf</t>
+        </is>
+      </c>
+      <c r="H750" t="n">
+        <v>4</v>
+      </c>
+      <c r="I750" t="n">
+        <v>1</v>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>540544</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2025-03-14T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0</v>
+      </c>
+      <c r="D751" t="n">
+        <v>770</v>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F751" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3</v>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>540545</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2025-03-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>0</v>
+      </c>
+      <c r="D752" t="n">
+        <v>771</v>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F752" t="n">
+        <v>1771</v>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="H752" t="n">
+        <v>2</v>
+      </c>
+      <c r="I752" t="n">
+        <v>1</v>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>540546</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2025-03-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0</v>
+      </c>
+      <c r="D753" t="n">
+        <v>772</v>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F753" t="n">
+        <v>1772</v>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0</v>
+      </c>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>540547</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2025-03-29T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>0</v>
+      </c>
+      <c r="D754" t="n">
+        <v>773</v>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="F754" t="n">
+        <v>1773</v>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H754" t="n">
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>2</v>
+      </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>540548</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2025-04-05T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0</v>
+      </c>
+      <c r="D755" t="n">
+        <v>774</v>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F755" t="n">
+        <v>1774</v>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="n">
+        <v>3</v>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>540549</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2025-04-05T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0</v>
+      </c>
+      <c r="D756" t="n">
+        <v>775</v>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F756" t="n">
+        <v>1775</v>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Hertha</t>
+        </is>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="n">
+        <v>1</v>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>540550</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2025-04-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+      <c r="D757" t="n">
+        <v>776</v>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="F757" t="n">
+        <v>1776</v>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H757" t="n">
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>1</v>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>540551</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2025-04-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0</v>
+      </c>
+      <c r="D758" t="n">
+        <v>777</v>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F758" t="n">
+        <v>1777</v>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="H758" t="n">
+        <v>2</v>
+      </c>
+      <c r="I758" t="n">
+        <v>4</v>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>540552</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2025-04-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D759" t="n">
+        <v>778</v>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="F759" t="n">
+        <v>1778</v>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H759" t="n">
+        <v>2</v>
+      </c>
+      <c r="I759" t="n">
+        <v>2</v>
+      </c>
+      <c r="J759" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>540553</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2025-04-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0</v>
+      </c>
+      <c r="D760" t="n">
+        <v>779</v>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F760" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H760" t="n">
+        <v>3</v>
+      </c>
+      <c r="I760" t="n">
+        <v>1</v>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>540554</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0</v>
+      </c>
+      <c r="D761" t="n">
+        <v>780</v>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F761" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="H761" t="n">
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>2</v>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>540555</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>0</v>
+      </c>
+      <c r="D762" t="n">
+        <v>781</v>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F762" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H762" t="n">
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>0</v>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>540556</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+      <c r="D763" t="n">
+        <v>782</v>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F763" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="n">
+        <v>4</v>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>540557</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D764" t="n">
+        <v>783</v>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F764" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H764" t="n">
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>1</v>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>540558</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0</v>
+      </c>
+      <c r="D765" t="n">
+        <v>784</v>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F765" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H765" t="n">
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>2</v>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>540559</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>0</v>
+      </c>
+      <c r="D766" t="n">
+        <v>785</v>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F766" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H766" t="n">
+        <v>6</v>
+      </c>
+      <c r="I766" t="n">
+        <v>1</v>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>540560</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
           <t>2025-05-18T00:00:00Z</t>
         </is>
       </c>
-      <c r="C750" t="n">
-        <v>0</v>
-      </c>
-      <c r="D750" t="n">
+      <c r="C767" t="n">
+        <v>0</v>
+      </c>
+      <c r="D767" t="n">
+        <v>786</v>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F767" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H767" t="n">
+        <v>4</v>
+      </c>
+      <c r="I767" t="n">
+        <v>0</v>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>540561</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+      <c r="D768" t="n">
         <v>787</v>
       </c>
-      <c r="E750" t="inlineStr">
+      <c r="E768" t="inlineStr">
         <is>
           <t>Greuther Furth</t>
         </is>
       </c>
-      <c r="F750" t="n">
+      <c r="F768" t="n">
         <v>1787</v>
       </c>
-      <c r="G750" t="inlineStr">
+      <c r="G768" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="H750" t="n">
-        <v>3</v>
-      </c>
-      <c r="I750" t="n">
-        <v>2</v>
-      </c>
-      <c r="J750" t="inlineStr">
+      <c r="H768" t="n">
+        <v>3</v>
+      </c>
+      <c r="I768" t="n">
+        <v>2</v>
+      </c>
+      <c r="J768" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K750" t="n">
-        <v>0</v>
-      </c>
-      <c r="L750" t="n">
+      <c r="K768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L768" t="n">
         <v>0</v>
       </c>
     </row>
